--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="242">
   <si>
     <t>TC_NO</t>
   </si>
@@ -182,9 +182,6 @@
     <t>http://investor.frontier.com/releases.cfm</t>
   </si>
   <si>
-    <t>https://frontier.com/corporate/pressroom</t>
-  </si>
-  <si>
     <t>Public_Inspection_Files_Url</t>
   </si>
   <si>
@@ -750,6 +747,12 @@
   </si>
   <si>
     <t>UnLink_Act_Num</t>
+  </si>
+  <si>
+    <t>ftrfrank1+automation3@gmail.com</t>
+  </si>
+  <si>
+    <t>https://frontier.com/corporate/news/home</t>
   </si>
 </sst>
 </file>
@@ -1258,11 +1261,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1307,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>20</v>
@@ -1313,43 +1316,43 @@
         <v>21</v>
       </c>
       <c r="H1" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="34" t="s">
-        <v>154</v>
-      </c>
       <c r="O1" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="Q1" s="34" t="s">
-        <v>160</v>
-      </c>
       <c r="R1" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1357,22 +1360,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1393,40 +1396,40 @@
         <v>3</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="35" t="s">
+      <c r="I3" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="K3" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="L3" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="35" t="s">
         <v>184</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>185</v>
       </c>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
@@ -1441,22 +1444,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
@@ -1465,16 +1468,16 @@
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
       <c r="N4" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O4" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="P4" s="35" t="s">
-        <v>162</v>
-      </c>
       <c r="Q4" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
@@ -1485,22 +1488,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
@@ -1521,22 +1524,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -1549,10 +1552,10 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="S6" s="35" t="s">
         <v>178</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1560,22 +1563,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -1590,7 +1593,7 @@
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
       <c r="T7" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1598,22 +1601,22 @@
         <v>10</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
@@ -1634,22 +1637,22 @@
         <v>11</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -1668,7 +1671,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId2" display="ftrfrank1+automation2@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D2" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1680,11 +1683,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BQ17" sqref="BQ17"/>
+      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,13 +1771,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>28</v>
@@ -1810,7 +1813,7 @@
         <v>39</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S1" s="10" t="s">
         <v>40</v>
@@ -1837,121 +1840,121 @@
         <v>42</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC1" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF1" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK1" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="AH1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="AL1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AU1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AV1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AW1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AX1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AY1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="AY1" s="14" t="s">
-        <v>173</v>
-      </c>
       <c r="AZ1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BA1" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BD1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="BD1" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="BE1" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BF1" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BH1" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BI1" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BJ1" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BK1" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BL1" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BM1" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
@@ -1965,34 +1968,34 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -2052,10 +2055,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -2068,22 +2071,22 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="P3" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q3" s="19" t="s">
         <v>196</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>197</v>
       </c>
       <c r="R3" s="19" t="s">
         <v>41</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -2143,10 +2146,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -2165,25 +2168,25 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -2236,10 +2239,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -2265,7 +2268,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB5" s="4" t="s">
         <v>49</v>
@@ -2274,19 +2277,19 @@
         <v>50</v>
       </c>
       <c r="AD5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG5" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AF5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
@@ -2325,16 +2328,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -2368,31 +2371,31 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
@@ -2422,16 +2425,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -2474,28 +2477,28 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="AS7" s="17" t="s">
+      <c r="AT7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AT7" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AU7" s="4" t="s">
+      <c r="AV7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AV7" s="4" t="s">
+      <c r="AW7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AW7" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="AX7" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY7" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
@@ -2517,16 +2520,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -2577,7 +2580,7 @@
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
@@ -2598,16 +2601,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
@@ -2659,7 +2662,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
@@ -2679,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -2741,7 +2744,7 @@
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
@@ -2760,16 +2763,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
@@ -2823,7 +2826,7 @@
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
@@ -2841,16 +2844,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
@@ -2905,7 +2908,7 @@
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
       <c r="BD12" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
@@ -2922,16 +2925,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
@@ -2987,10 +2990,10 @@
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
       <c r="BE13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF13" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="BF13" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
@@ -3005,16 +3008,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
@@ -3072,7 +3075,7 @@
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
@@ -3086,16 +3089,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>19</v>
@@ -3154,10 +3157,10 @@
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
       <c r="BH15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI15" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BI15" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
@@ -3169,16 +3172,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
@@ -3239,10 +3242,10 @@
       <c r="BH16" s="2"/>
       <c r="BI16" s="2"/>
       <c r="BJ16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK16" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="BK16" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="BL16" s="2"/>
       <c r="BM16" s="2"/>
@@ -3252,16 +3255,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>19</v>
@@ -3324,10 +3327,10 @@
       <c r="BJ17" s="2"/>
       <c r="BK17" s="2"/>
       <c r="BL17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM17" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="BM17" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3432,13 +3435,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>20</v>
@@ -3447,16 +3450,16 @@
         <v>21</v>
       </c>
       <c r="I1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3464,16 +3467,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>19</v>
@@ -3481,16 +3484,16 @@
       <c r="G2" s="25"/>
       <c r="H2" s="23"/>
       <c r="I2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3498,16 +3501,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>19</v>
@@ -3524,25 +3527,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
@@ -3554,16 +3557,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>19</v>
@@ -3580,16 +3583,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>19</v>
@@ -3606,16 +3609,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>19</v>
@@ -3632,16 +3635,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>19</v>
@@ -3658,16 +3661,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>19</v>
@@ -3684,16 +3687,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>19</v>
@@ -3710,7 +3713,7 @@
     <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{A998F48A-7F73-4E54-BC7D-526F62EE1299}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3763,52 +3766,52 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="33" t="s">
-        <v>140</v>
-      </c>
       <c r="M1" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P1" s="33" t="s">
         <v>46</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3816,22 +3819,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>188</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>189</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
@@ -3845,23 +3848,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -3880,16 +3883,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>19</v>
@@ -3897,7 +3900,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
@@ -3915,16 +3918,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>19</v>
@@ -3933,7 +3936,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -3950,16 +3953,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>19</v>
@@ -3969,7 +3972,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -3985,16 +3988,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>19</v>
@@ -4005,7 +4008,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -4020,16 +4023,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>19</v>
@@ -4053,16 +4056,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>19</v>
@@ -4086,16 +4089,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>19</v>
@@ -4119,16 +4122,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>19</v>
@@ -4140,7 +4143,7 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
       <c r="M11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
@@ -4154,16 +4157,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>19</v>
@@ -4176,7 +4179,7 @@
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
       <c r="N12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
@@ -4189,16 +4192,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>19</v>
@@ -4212,7 +4215,7 @@
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
       <c r="O13" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
@@ -4224,16 +4227,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>19</v>
@@ -4248,7 +4251,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
       <c r="P14" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
@@ -4259,16 +4262,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>19</v>
@@ -4284,7 +4287,7 @@
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
@@ -4294,16 +4297,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>19</v>
@@ -4320,7 +4323,7 @@
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S16" s="28"/>
     </row>
@@ -4329,16 +4332,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17" s="28" t="s">
         <v>19</v>
@@ -4356,7 +4359,7 @@
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
       <c r="S17" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -1265,7 +1265,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,11 +1683,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,10 +3401,10 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3724,11 +3724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B17"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="243">
   <si>
     <t>TC_NO</t>
   </si>
@@ -566,9 +566,6 @@
     <t>9191</t>
   </si>
   <si>
-    <t>ftrfrank1+automation2@gmail.com</t>
-  </si>
-  <si>
     <t>219-324-3764-102891-5</t>
   </si>
   <si>
@@ -753,6 +750,12 @@
   </si>
   <si>
     <t>https://frontier.com/corporate/news/home</t>
+  </si>
+  <si>
+    <t>ftrqat03+3@gmail.com</t>
+  </si>
+  <si>
+    <t>Password123</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -978,6 +981,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1346,13 +1350,13 @@
         <v>159</v>
       </c>
       <c r="R1" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="S1" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1360,19 +1364,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>128</v>
@@ -1396,40 +1400,40 @@
         <v>3</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>128</v>
       </c>
       <c r="H3" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="K3" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="L3" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" s="35" t="s">
         <v>183</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>184</v>
       </c>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
@@ -1444,19 +1448,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>128</v>
@@ -1488,19 +1492,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>128</v>
@@ -1524,19 +1528,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>128</v>
@@ -1563,19 +1567,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>128</v>
@@ -1601,19 +1605,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>128</v>
@@ -1637,19 +1641,19 @@
         <v>11</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>128</v>
@@ -1968,34 +1972,34 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -2055,10 +2059,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -2071,22 +2075,22 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="P3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q3" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="R3" s="19" t="s">
         <v>41</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -2146,10 +2150,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -2168,25 +2172,25 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>114</v>
       </c>
       <c r="V4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -2239,10 +2243,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -2268,7 +2272,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB5" s="4" t="s">
         <v>49</v>
@@ -2277,19 +2281,19 @@
         <v>50</v>
       </c>
       <c r="AD5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="AF5" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
@@ -2334,10 +2338,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -2431,10 +2435,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -2526,10 +2530,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -2580,7 +2584,7 @@
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
@@ -2607,10 +2611,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
@@ -2662,7 +2666,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
@@ -2688,10 +2692,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -2744,7 +2748,7 @@
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
@@ -2769,10 +2773,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
@@ -2826,7 +2830,7 @@
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
@@ -2850,10 +2854,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
@@ -2908,7 +2912,7 @@
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
       <c r="BD12" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
@@ -2931,10 +2935,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
@@ -3014,10 +3018,10 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
@@ -3095,10 +3099,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>19</v>
@@ -3178,10 +3182,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
@@ -3261,10 +3265,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>19</v>
@@ -3400,11 +3404,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,10 +3477,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>19</v>
@@ -3507,10 +3511,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>19</v>
@@ -3533,19 +3537,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="36" t="s">
-        <v>179</v>
+      <c r="G4" s="37" t="s">
+        <v>241</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
@@ -3563,10 +3567,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>19</v>
@@ -3589,10 +3593,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>19</v>
@@ -3615,10 +3619,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>19</v>
@@ -3641,10 +3645,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>19</v>
@@ -3667,10 +3671,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>19</v>
@@ -3693,10 +3697,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>19</v>
@@ -3713,7 +3717,7 @@
     <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{946D5336-440C-4D1B-840F-DADDD6F71085}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3724,11 +3728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3825,16 +3829,16 @@
         <v>18</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>187</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>188</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
@@ -3848,23 +3852,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -3883,16 +3887,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>19</v>
@@ -3900,7 +3904,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
@@ -3918,16 +3922,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>19</v>
@@ -3936,7 +3940,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -3953,16 +3957,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>19</v>
@@ -3972,7 +3976,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -3988,16 +3992,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>19</v>
@@ -4008,7 +4012,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -4023,16 +4027,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>19</v>
@@ -4056,16 +4060,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>19</v>
@@ -4089,16 +4093,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>19</v>
@@ -4122,16 +4126,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>19</v>
@@ -4143,7 +4147,7 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
       <c r="M11" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
@@ -4157,16 +4161,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>19</v>
@@ -4192,16 +4196,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>19</v>
@@ -4215,7 +4219,7 @@
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
       <c r="O13" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
@@ -4227,16 +4231,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>19</v>
@@ -4251,7 +4255,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
       <c r="P14" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
@@ -4262,16 +4266,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>19</v>
@@ -4287,7 +4291,7 @@
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
@@ -4297,16 +4301,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>19</v>
@@ -4323,7 +4327,7 @@
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S16" s="28"/>
     </row>
@@ -4332,16 +4336,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="28" t="s">
         <v>19</v>
@@ -4359,14 +4363,14 @@
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
       <c r="S17" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
     <hyperlink ref="G2" r:id="rId4" display="https://qat01.frontier.com/shop/bundles" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
     <hyperlink ref="H3" r:id="rId5" display="https://qat01.frontier.com/shop/internet" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
     <hyperlink ref="I4" r:id="rId6" display="https://qat01.frontier.com/shop/phone" xr:uid="{00000000-0004-0000-0300-000005000000}"/>

--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
     <sheet name="Footers" sheetId="5" r:id="rId2"/>
     <sheet name="Headers" sheetId="2" r:id="rId3"/>
     <sheet name="TabSelections" sheetId="6" r:id="rId4"/>
+    <sheet name="TempData" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="248">
   <si>
     <t>TC_NO</t>
   </si>
@@ -756,6 +757,21 @@
   </si>
   <si>
     <t>Password123</t>
+  </si>
+  <si>
+    <t>72784943010808015</t>
+  </si>
+  <si>
+    <t>7557</t>
+  </si>
+  <si>
+    <t>Linked A/C</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>3800</t>
   </si>
 </sst>
 </file>
@@ -821,7 +837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,6 +916,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -929,7 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -982,6 +1004,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1265,11 +1288,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,10 +1579,10 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="35" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="S6" s="35" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1597,7 +1620,7 @@
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
       <c r="T7" s="35" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1675,7 +1698,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" display="ftrfrank1+automation2@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D2" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3404,7 +3427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4386,4 +4409,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A13C76-3EBD-4EFB-AA5C-3F9569212C5F}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -1292,7 +1292,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,10 +1579,10 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="35" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="S6" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -4416,7 +4416,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="250">
   <si>
     <t>TC_NO</t>
   </si>
@@ -772,6 +772,12 @@
   </si>
   <si>
     <t>3800</t>
+  </si>
+  <si>
+    <t>HopUpdrage</t>
+  </si>
+  <si>
+    <t>Ftrfrank1+ecomauto@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1286,13 +1292,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,14 +1701,53 @@
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
     </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{069EBF77-4D15-4A56-96A2-FA48CB1466A3}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{428E0D5F-5715-4602-9AB0-50B80738155C}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{7AC2C3E6-C4D6-4DED-B452-E98FDEA12325}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="255">
   <si>
     <t>TC_NO</t>
   </si>
@@ -774,10 +774,25 @@
     <t>3800</t>
   </si>
   <si>
-    <t>HopUpdrage</t>
-  </si>
-  <si>
     <t>Ftrfrank1+ecomauto@gmail.com</t>
+  </si>
+  <si>
+    <t>016_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_InternetHOPUpgrade</t>
+  </si>
+  <si>
+    <t>https://qat01.frontier.com/</t>
+  </si>
+  <si>
+    <t>22224444</t>
+  </si>
+  <si>
+    <t>017_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video HOP Upgrade</t>
+  </si>
+  <si>
+    <t>ftrfrank1+ecommtest01@gmail.com</t>
+  </si>
+  <si>
+    <t>018_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video ADD</t>
   </si>
 </sst>
 </file>
@@ -929,7 +944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -952,12 +967,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1011,6 +1039,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1292,13 +1322,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1356,7 @@
     <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1388,9 +1418,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>228</v>
@@ -1424,9 +1454,9 @@
       <c r="S2" s="35"/>
       <c r="T2" s="35"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>229</v>
@@ -1472,9 +1502,9 @@
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>230</v>
@@ -1516,9 +1546,9 @@
       <c r="S4" s="35"/>
       <c r="T4" s="35"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>231</v>
@@ -1552,9 +1582,9 @@
       <c r="S5" s="35"/>
       <c r="T5" s="35"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>232</v>
@@ -1591,9 +1621,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>233</v>
@@ -1629,9 +1659,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>234</v>
@@ -1665,9 +1695,9 @@
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>235</v>
@@ -1701,24 +1731,24 @@
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="36" t="s">
         <v>248</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>249</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>128</v>
@@ -1735,7 +1765,80 @@
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="35"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1743,11 +1846,14 @@
     <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{069EBF77-4D15-4A56-96A2-FA48CB1466A3}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{428E0D5F-5715-4602-9AB0-50B80738155C}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{7AC2C3E6-C4D6-4DED-B452-E98FDEA12325}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{33C6C5FD-354A-41B7-9096-024291403717}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{A3CCDC15-D7B9-436E-A614-91E7AFB78D73}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{A4ADB31C-57E9-43FB-9A41-52E42CDD2F65}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{98ADF33B-5231-4A53-9BEF-8B69070AC4D9}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{81F8DC8E-D467-44C4-8E22-12E14ACD449D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="121">
   <si>
     <t>TC_NO</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>Order_Id</t>
+  </si>
+  <si>
+    <t>001_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_PreferredVideoPackage</t>
+  </si>
+  <si>
+    <t>Ftrfrank1+videoadd@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -550,6 +556,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -831,13 +839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,6 +1300,58 @@
       <c r="P12" s="24"/>
       <c r="Q12" s="20"/>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1303,9 +1363,11 @@
     <hyperlink ref="D11" r:id="rId7" xr:uid="{A4ADB31C-57E9-43FB-9A41-52E42CDD2F65}"/>
     <hyperlink ref="F11" r:id="rId8" xr:uid="{98ADF33B-5231-4A53-9BEF-8B69070AC4D9}"/>
     <hyperlink ref="D12" r:id="rId9" xr:uid="{81F8DC8E-D467-44C4-8E22-12E14ACD449D}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{E57E6C76-271D-4A6E-867E-E3E3824A3546}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{5E6CF49E-67CA-4C46-A649-3F6B29F4C8AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="128">
   <si>
     <t>TC_NO</t>
   </si>
@@ -249,9 +244,6 @@
     <t>219-324-3764-102891-5</t>
   </si>
   <si>
-    <t>$137.68</t>
-  </si>
-  <si>
     <t>https://qat03.frontier.com/</t>
   </si>
   <si>
@@ -369,18 +361,12 @@
     <t>016_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_InternetHOPUpgrade</t>
   </si>
   <si>
-    <t>https://qat01.frontier.com/</t>
-  </si>
-  <si>
     <t>22224444</t>
   </si>
   <si>
     <t>017_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video HOP Upgrade</t>
   </si>
   <si>
-    <t>ftrfrank1+ecommtest01@gmail.com</t>
-  </si>
-  <si>
     <t>018_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video ADD</t>
   </si>
   <si>
@@ -390,14 +376,44 @@
     <t>001_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_PreferredVideoPackage</t>
   </si>
   <si>
-    <t>Ftrfrank1+videoadd@gmail.com</t>
+    <t>219-364-9237-121317-5</t>
+  </si>
+  <si>
+    <t>$134.19</t>
+  </si>
+  <si>
+    <t>002_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomEssentialsPackage</t>
+  </si>
+  <si>
+    <t>ftrfrank1+feb18@gmail.com</t>
+  </si>
+  <si>
+    <t>003_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomSportsPackage</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_ExtremePackage</t>
+  </si>
+  <si>
+    <t>005_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_UltimateVideoPackage</t>
+  </si>
+  <si>
+    <t>ftrfrank1+mar18@gmail.com</t>
+  </si>
+  <si>
+    <t>Ftrfrank1+videoaddtest03@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrfrank1+remedyticket@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrfrank1+march18th@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +463,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -528,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -558,6 +580,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -831,33 +856,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD14"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -910,16 +935,16 @@
         <v>66</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="Q1" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -927,19 +952,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>54</v>
@@ -960,28 +985,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
@@ -997,19 +1022,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>54</v>
@@ -1038,19 +1063,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>54</v>
@@ -1071,19 +1096,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>54</v>
@@ -1095,10 +1120,10 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="Q6" s="20"/>
     </row>
@@ -1107,19 +1132,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>54</v>
@@ -1133,7 +1158,7 @@
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="20"/>
     </row>
@@ -1142,19 +1167,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>54</v>
@@ -1175,19 +1200,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>54</v>
@@ -1208,19 +1233,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>54</v>
@@ -1235,7 +1260,7 @@
       <c r="O10" s="20"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1243,22 +1268,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -1276,13 +1301,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>19</v>
@@ -1324,22 +1349,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -1352,27 +1377,171 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
     </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{069EBF77-4D15-4A56-96A2-FA48CB1466A3}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{33C6C5FD-354A-41B7-9096-024291403717}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{A3CCDC15-D7B9-436E-A614-91E7AFB78D73}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{A4ADB31C-57E9-43FB-9A41-52E42CDD2F65}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{98ADF33B-5231-4A53-9BEF-8B69070AC4D9}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{81F8DC8E-D467-44C4-8E22-12E14ACD449D}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{E57E6C76-271D-4A6E-867E-E3E3824A3546}"/>
-    <hyperlink ref="F14" r:id="rId11" xr:uid="{5E6CF49E-67CA-4C46-A649-3F6B29F4C8AA}"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D14" r:id="rId10"/>
+    <hyperlink ref="F14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="F17" r:id="rId17"/>
+    <hyperlink ref="D18" r:id="rId18"/>
+    <hyperlink ref="F18" r:id="rId19"/>
+    <hyperlink ref="F6" r:id="rId20"/>
+    <hyperlink ref="F7" r:id="rId21"/>
+    <hyperlink ref="F4" r:id="rId22"/>
+    <hyperlink ref="F5" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1424,10 +1593,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -1444,10 +1613,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -1464,10 +1633,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -1484,10 +1653,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -1504,10 +1673,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -1524,10 +1693,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -1544,10 +1713,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -1564,10 +1733,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
@@ -1584,10 +1753,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -1604,10 +1773,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
@@ -1624,10 +1793,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
@@ -1644,10 +1813,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
@@ -1664,10 +1833,10 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
@@ -1684,10 +1853,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>19</v>
@@ -1704,10 +1873,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
@@ -1724,10 +1893,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>19</v>
@@ -1735,9 +1904,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1745,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1821,10 +1990,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>19</v>
@@ -1855,10 +2024,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>19</v>
@@ -1881,19 +2050,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1911,10 +2080,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>19</v>
@@ -1937,10 +2106,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>19</v>
@@ -1963,10 +2132,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>19</v>
@@ -1989,10 +2158,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>19</v>
@@ -2015,10 +2184,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>19</v>
@@ -2041,10 +2210,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>19</v>
@@ -2058,10 +2227,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{946D5336-440C-4D1B-840F-DADDD6F71085}"/>
+    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="G4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2069,7 +2238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2117,7 +2286,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>19</v>
@@ -2128,13 +2297,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>19</v>
@@ -2145,13 +2314,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>19</v>
@@ -2162,13 +2331,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>19</v>
@@ -2179,13 +2348,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>19</v>
@@ -2196,13 +2365,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>19</v>
@@ -2213,13 +2382,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>19</v>
@@ -2230,13 +2399,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>19</v>
@@ -2247,13 +2416,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>19</v>
@@ -2264,13 +2433,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>19</v>
@@ -2281,13 +2450,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>19</v>
@@ -2298,13 +2467,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>19</v>
@@ -2315,13 +2484,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>19</v>
@@ -2332,13 +2501,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>19</v>
@@ -2349,13 +2518,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>19</v>
@@ -2366,13 +2535,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>19</v>
@@ -2380,9 +2549,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2390,7 +2559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A13C76-3EBD-4EFB-AA5C-3F9569212C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2405,20 +2574,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -2438,7 +2607,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>

--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4186B-00AB-4D57-9DD1-0078DD1F2F1D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="132">
   <si>
     <t>TC_NO</t>
   </si>
@@ -337,12 +331,6 @@
     <t>Password123</t>
   </si>
   <si>
-    <t>72784943010808015</t>
-  </si>
-  <si>
-    <t>7557</t>
-  </si>
-  <si>
     <t>016_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_InternetHOPUpgrade</t>
   </si>
   <si>
@@ -377,9 +365,6 @@
   </si>
   <si>
     <t>005_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_UltimateVideoPackage</t>
-  </si>
-  <si>
-    <t>ftrfrank1+mar18@gmail.com</t>
   </si>
   <si>
     <t>Ftrfrank1+videoaddtest03@gmail.com</t>
@@ -494,16 +479,22 @@
     </r>
   </si>
   <si>
-    <t>941-755-8442-022113-5 DOLORES C.</t>
-  </si>
-  <si>
-    <t>ftrfrank1+internethop@gmail.com</t>
+    <t>ftrfrank1+mar13@gmail.com</t>
+  </si>
+  <si>
+    <t>8136774772</t>
+  </si>
+  <si>
+    <t>0293</t>
+  </si>
+  <si>
+    <t>210-023-1679-051407-5 JOANN S.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -965,21 +956,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +988,7 @@
     <col min="11" max="11" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="3" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="3"/>
@@ -1053,7 +1044,7 @@
         <v>98</v>
       </c>
       <c r="Q1" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1112,10 +1103,10 @@
         <v>54</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -1143,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>54</v>
@@ -1184,7 +1175,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>54</v>
@@ -1217,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>54</v>
@@ -1229,10 +1220,10 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="29" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="29"/>
@@ -1254,7 +1245,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>54</v>
@@ -1268,7 +1259,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="29"/>
     </row>
@@ -1343,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>18</v>
@@ -1355,10 +1346,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>131</v>
@@ -1372,7 +1363,7 @@
       <c r="O10" s="29"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1380,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>18</v>
@@ -1392,7 +1383,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>101</v>
@@ -1413,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>18</v>
@@ -1458,19 +1449,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="D11" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="D12" r:id="rId8"/>
+    <hyperlink ref="F6" r:id="rId9"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="F4" r:id="rId11"/>
+    <hyperlink ref="F5" r:id="rId12"/>
+    <hyperlink ref="F10" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -1478,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1841,9 +1832,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1851,7 +1842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2164,10 +2155,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="G4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2175,7 +2166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2486,9 +2477,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2496,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB4E7A6-61D5-45C7-B5EC-E4DEC777C00A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2549,7 +2540,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -2570,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>18</v>
@@ -2582,7 +2573,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>54</v>
@@ -2601,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>18</v>
@@ -2613,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>54</v>
@@ -2632,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>18</v>
@@ -2644,7 +2635,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>54</v>
@@ -2663,7 +2654,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>18</v>
@@ -2675,7 +2666,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>54</v>
@@ -2694,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>18</v>
@@ -2706,7 +2697,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>54</v>
@@ -2723,7 +2714,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -2744,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>18</v>
@@ -2756,7 +2747,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>54</v>
@@ -2775,7 +2766,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>18</v>
@@ -2787,7 +2778,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>54</v>
@@ -2806,7 +2797,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>18</v>
@@ -2818,7 +2809,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>54</v>
@@ -2986,7 +2977,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3005,7 +2996,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3024,7 +3015,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -3043,7 +3034,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -3062,7 +3053,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -3319,22 +3310,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{C391DF69-8083-4DC9-B0E9-CE18F968FEAD}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{3922DF6A-7438-4A79-994F-E323CD094686}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{88B23BF3-EEFB-4700-AE58-A96F98B8B7EE}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{594CADE3-D619-4BB7-A261-ECBC026F93D7}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{B7739583-0B54-41DA-8F8D-8B2F53A6154B}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{A8449DDB-4C07-410C-A757-87ABDC7932BC}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{222C4E0E-9B91-458E-B13D-7F6344C9D91A}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{6196C624-587E-4193-B3F8-D017D6C84C44}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{41BA222C-6AE4-48D7-9DC9-3DDA382C5CCA}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{1E2DDE44-6697-436B-BD49-92F41B497973}"/>
-    <hyperlink ref="D9" r:id="rId11" xr:uid="{E38D40C7-5553-45BB-8AA6-E9235AC096AF}"/>
-    <hyperlink ref="D10" r:id="rId12" xr:uid="{864201E4-D990-46CE-B4D7-9B96BD4D6081}"/>
-    <hyperlink ref="D11" r:id="rId13" xr:uid="{F6B24446-26B0-4D6E-8366-880013F635A0}"/>
-    <hyperlink ref="F9" r:id="rId14" xr:uid="{7467425F-511C-4292-A735-DF9ADF61E268}"/>
-    <hyperlink ref="F10" r:id="rId15" xr:uid="{9BB51A9C-82C4-4185-8E6E-2C5CDDFC25D1}"/>
-    <hyperlink ref="F11" r:id="rId16" xr:uid="{12486A67-4021-4362-8D95-C7454D399EDD}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="D7" r:id="rId9"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="D9" r:id="rId11"/>
+    <hyperlink ref="D10" r:id="rId12"/>
+    <hyperlink ref="D11" r:id="rId13"/>
+    <hyperlink ref="F9" r:id="rId14"/>
+    <hyperlink ref="F10" r:id="rId15"/>
+    <hyperlink ref="F11" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>

--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CDD8ED-DDDB-487C-A857-5B889C46EE23}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
-    <sheet name="Footers" sheetId="5" r:id="rId2"/>
-    <sheet name="Headers" sheetId="2" r:id="rId3"/>
-    <sheet name="TabSelections" sheetId="6" r:id="rId4"/>
-    <sheet name="ECommerce" sheetId="10" r:id="rId5"/>
+    <sheet name="Chat" sheetId="11" r:id="rId2"/>
+    <sheet name="Footers" sheetId="5" r:id="rId3"/>
+    <sheet name="Headers" sheetId="2" r:id="rId4"/>
+    <sheet name="TabSelections" sheetId="6" r:id="rId5"/>
+    <sheet name="ECommerce" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="218">
   <si>
     <t>TC_NO</t>
   </si>
@@ -361,12 +368,6 @@
     <t>003_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomSportsPackage</t>
   </si>
   <si>
-    <t>004_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_ExtremePackage</t>
-  </si>
-  <si>
-    <t>005_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_UltimateVideoPackage</t>
-  </si>
-  <si>
     <t>Ftrfrank1+videoaddtest03@gmail.com</t>
   </si>
   <si>
@@ -398,37 +399,6 @@
   </si>
   <si>
     <t>004_CC_.COM_SS_AS_E-Com_VC_ReplaceBundleinCart</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_PreferredVideoPackage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-020_CC_.COM_SS_AS_E-Com_AVP_Add Preferred Video Package
-024_CC_.COM_SS_AS_E-Com_AVP_Bundle Selection
-026_CC_.COM_SS_AS_E-Com_AVP_Bundle Price
-062_CC_.COM_SS_AS_E-Com_OC_Order Confirmation Details
-063_CC_.COM_SS_AS_E-Com_OC_Check Status Link
-064_CC_.COM_SS_AS_E-Com_OC_Order Summary-TV
-065_CC_.COM_SS_AS_E-Com_OC_Important Information
-071_CC_.COM_SS_AS_E-Com_OS_Order Status Page</t>
-    </r>
   </si>
   <si>
     <r>
@@ -490,12 +460,383 @@
   <si>
     <t>210-023-1679-051407-5 JOANN S.</t>
   </si>
+  <si>
+    <t>001_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_ErrorMessaging</t>
+  </si>
+  <si>
+    <t>002_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageSelectionRetention</t>
+  </si>
+  <si>
+    <t>003_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonHomePage_Enterprise</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonHomePage_Res</t>
+  </si>
+  <si>
+    <t>005_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonHomePage_SMB</t>
+  </si>
+  <si>
+    <t>006_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonMobileAppPage</t>
+  </si>
+  <si>
+    <t>007_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleFunctionalityonHomePage</t>
+  </si>
+  <si>
+    <t>008_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleFunctionalityonMobileAppPage</t>
+  </si>
+  <si>
+    <t>010_CC_.COM_NSS_Res_Non-LoggedInChatFlow_KnownHelpType</t>
+  </si>
+  <si>
+    <t>011_CC_.COM_NSS_Res_Non-LoggedInChatFlow_UnknownHelpType</t>
+  </si>
+  <si>
+    <t>012_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_CustomerType</t>
+  </si>
+  <si>
+    <t>013_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_SupportType</t>
+  </si>
+  <si>
+    <t>014_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_SupportTypeAutoNavtoPCS2</t>
+  </si>
+  <si>
+    <t>015_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_SupportTypeNavtoPCS1S3</t>
+  </si>
+  <si>
+    <t>016_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ServiceType</t>
+  </si>
+  <si>
+    <t>017_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ServiceTypeNavtoPCS1S4</t>
+  </si>
+  <si>
+    <t>018_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType</t>
+  </si>
+  <si>
+    <t>019_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_Voice</t>
+  </si>
+  <si>
+    <t>020_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_Internet</t>
+  </si>
+  <si>
+    <t>021_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_TV</t>
+  </si>
+  <si>
+    <t>022_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_FrontierSecure</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>023_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductTypeAutoNavtoPCS2</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>024_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_AgentWindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>025_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_CTAButton</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>026_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_NonSignIn</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>027_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_NonSignIn_Agent WindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>028_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_Non SignIn_RequiredFields</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>029_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_SignIn</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>030_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_SignIn_AgentWindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>031_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_CTAButton</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>032_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_BackButton-Link</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>034_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_FreeForm</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>035_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_AgentWindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>036_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_FreeForm_RequiredField</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>037_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_CTAButton</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>038_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_BackButton-Link</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>043_CC_.COM_NSS_Res_Non-LoggedIn_Self-ServeWindow</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>047_CC_.COM_NSS_Res_Non-LoggedIn_OverlayMenuFunctionality</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>049_CC_.COM_NSS_Res_Non-LoggedIn_AutoMessages</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>01_CC_.COM_NSS_Res_Chat_SMC_URLGenerator</t>
+  </si>
+  <si>
+    <t>https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>03_CC_.COM_NSS_Res_Chat_SMC_CreationofNewSocialMediaChatLandingPage</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>04_CC_.COM_NSS_Res_Chat_SMC_DisplayofNewSocialMediaChatLandingPage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_PreferredVideoPackage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+020_CC_.COM_SS_AS_E-Com_AVP_Add Preferred Video Package</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">004_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_ExtremePackage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021_CC_.COM_SS_AS_E-Com_AVP_Add Extreme Video Package</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">005_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_UltimateVideoPackage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>022_CC_.COM_SS_AS_E-Com_AVP_Add Ultimate Video Package</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">024_CC_.COM_SS_AS_E-Com_AVP_Bundle Selection
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>026_CC_.COM_SS_AS_E-Com_AVP_Bundle Price</t>
+    </r>
+  </si>
+  <si>
+    <t>Complete Order</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001_CC_.COM_SS_AS_E-Com_OC_Order Confirmation Details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+002_CC_.COM_SS_AS_E-Com_OC_Check Status Link
+003_CC_.COM_SS_AS_E-Com_OC_Order Summary-TV
+004_CC_.COM_SS_AS_E-Com_OC_Important Information</t>
+    </r>
+  </si>
+  <si>
+    <t>Ftrfrank1+shopvideo@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrfrank1+addtest03@gmail.com</t>
+  </si>
+  <si>
+    <t>Customize Router Selection</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001_CC_.COM_SS_AS_E-Com_DC_SelectRouterInformation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+004_CC_.COM_SS_AS_E-Com_DC_NoRouterSelected</t>
+    </r>
+  </si>
+  <si>
+    <t>003_CC_.COM_SS_AS_E-Com_DC_SelectBHR4Router</t>
+  </si>
+  <si>
+    <t>005_CC_.COM_SS_AS_E-Com_DC_RouterRental</t>
+  </si>
+  <si>
+    <t>006_CC_.COM_SS_AS_E-Com_DC_RouterPurchase</t>
+  </si>
+  <si>
+    <t>Customize Streaming Experience</t>
+  </si>
+  <si>
+    <t>001_CC_.COM_SS_AS_E-Com_VC_2 TVs_StandardDVR</t>
+  </si>
+  <si>
+    <t>002_CC_.COM_SS_AS_E-Com_VC_3 TVs_QuantumEnhanced</t>
+  </si>
+  <si>
+    <t>003_CC_.COM_SS_AS_E-Com_VC_5 TVs_StandardNODVR</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_SS_AS_E-Com_VC_Updated Package-EquipmentReflectsinOrderSummary</t>
+  </si>
+  <si>
+    <t>Other Scenarios</t>
+  </si>
+  <si>
+    <t>006_CC_.COM_SS_AS_E-Com_OS_OrderStatusPage</t>
+  </si>
+  <si>
+    <t>Link with TC07</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>008_CC_.COM_SS_AS_E-Com_OS_AgentPortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Review Order</t>
+  </si>
+  <si>
+    <t>009_CC_.COM_SS_AS_E-Com_REV_ImportantInformation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +898,13 @@
       <color rgb="FF444444"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -638,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -658,7 +1006,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -683,6 +1030,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -956,21 +1312,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,473 +1351,473 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="29" t="s">
+      <c r="C4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="29" t="s">
+      <c r="C5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="C6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="28"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="29"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q7" s="29"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="29" t="s">
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="29"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="29"/>
+      <c r="C12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="28"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D11" r:id="rId6"/>
-    <hyperlink ref="F11" r:id="rId7"/>
-    <hyperlink ref="D12" r:id="rId8"/>
-    <hyperlink ref="F6" r:id="rId9"/>
-    <hyperlink ref="F7" r:id="rId10"/>
-    <hyperlink ref="F4" r:id="rId11"/>
-    <hyperlink ref="F5" r:id="rId12"/>
-    <hyperlink ref="F10" r:id="rId13"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -1469,7 +1825,1294 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B5CF28-B0AF-4F5B-BB34-787D2EEA0390}">
+  <dimension ref="A1:O46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{72DEF754-E581-4D73-9018-22B5FD7BE89D}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{685767DA-A6E0-424D-847F-8569B2C45B15}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{E65B59D8-4FAE-448E-A867-C9611CEA60F1}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{085C4E32-708D-4E4E-A6B9-F4B23CA59515}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{B542E3DE-1B86-46E3-92FD-B6E88AED02F8}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{6C0FEA6A-4D0E-4EA6-AF24-E50F1D85B4AF}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{3EEB6386-7F3F-41EC-AA60-C2D9CFD40F53}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{4341D7A4-A40C-44D8-90EF-DEFA7E6971E9}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{E2361780-C30C-4FB3-B428-D7D8C8345873}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{69957EA1-658F-4120-90A2-FEFA0E7EF91B}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{30691EAA-E69C-4F84-B883-2BD4ADE2FA8B}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{865F1275-4AC0-4985-9AC2-C09FC68B6534}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{D49F78C0-2845-4E39-BCF4-81296FF10C17}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{DA7AD4A0-33F8-4315-8471-F3B2ED9A1D28}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{D66FEFCA-2187-4062-AE1B-FEA390FEEAD7}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{CD147AB1-3DEF-479E-A835-291472F516C3}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{5DFF6C3D-99E7-444A-AA86-373C508AAA63}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{A7E11B6F-0AE0-4E24-9509-B0E658528045}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{EC390176-D7FC-4B5D-862B-3EF2130D0E2C}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{29776F7C-0B61-4136-B6D9-81DE62E60B90}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{5610CF5B-FE9F-4328-888C-B9BDE88C3DAA}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{F306B280-01BC-4384-9B1D-EEEC1C2BB817}"/>
+    <hyperlink ref="D28" r:id="rId23" xr:uid="{133E16BD-198C-403A-9AB3-AA2608289096}"/>
+    <hyperlink ref="D29" r:id="rId24" xr:uid="{D0858FC2-9A39-4358-BBE2-D97C13B6A339}"/>
+    <hyperlink ref="D30" r:id="rId25" xr:uid="{59FDD410-273F-4839-981F-A5F34666AA8E}"/>
+    <hyperlink ref="D31" r:id="rId26" xr:uid="{EF587E0E-473A-4EDD-92C0-5FF2845D70A4}"/>
+    <hyperlink ref="D32" r:id="rId27" xr:uid="{7AF7FB66-25FB-400E-9EC6-ADC6A0E5E00D}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{EE37C220-1378-4AAF-9510-B42B113247EF}"/>
+    <hyperlink ref="D34" r:id="rId29" xr:uid="{CCF00876-4DB3-492C-87B5-EC1F5D7BAD73}"/>
+    <hyperlink ref="D35" r:id="rId30" xr:uid="{4B862107-DB93-4207-BB96-508266008ECD}"/>
+    <hyperlink ref="D36" r:id="rId31" xr:uid="{9F757E8F-171A-4AD2-9B95-8AB0E71C7DF3}"/>
+    <hyperlink ref="D37" r:id="rId32" xr:uid="{00263129-E355-45DF-9914-6F77FFB67F71}"/>
+    <hyperlink ref="D38" r:id="rId33" xr:uid="{967585D7-E636-42B0-8D45-A73A4814E590}"/>
+    <hyperlink ref="D39" r:id="rId34" xr:uid="{38C2B510-F092-4BF5-9D8D-42B8A6AE374B}"/>
+    <hyperlink ref="D40" r:id="rId35" xr:uid="{8C867F5E-DD3D-4AD2-829C-1FE7547BEF36}"/>
+    <hyperlink ref="D43" r:id="rId36" location="/" xr:uid="{9F5A8E16-9BBC-4819-91B6-9C88378739F9}"/>
+    <hyperlink ref="D44" r:id="rId37" location="/" xr:uid="{731A610A-0880-4FC2-9F73-AD1F67BB8344}"/>
+    <hyperlink ref="D42" r:id="rId38" location="/" xr:uid="{7C212673-A979-4F4F-A68B-A26A5156D365}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1832,17 +3475,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1986,7 +3629,7 @@
       <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -2155,18 +3798,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2213,7 +3856,7 @@
       <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -2224,7 +3867,7 @@
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2241,7 +3884,7 @@
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2258,7 +3901,7 @@
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2275,7 +3918,7 @@
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -2292,7 +3935,7 @@
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2309,7 +3952,7 @@
       <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2326,7 +3969,7 @@
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -2343,7 +3986,7 @@
       <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -2360,7 +4003,7 @@
       <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -2477,21 +4120,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,827 +4150,1114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="H1" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="C14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="23" t="s">
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
+      <c r="A25" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
+      <c r="A26" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
+      <c r="A29" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="D6" r:id="rId7"/>
-    <hyperlink ref="F6" r:id="rId8"/>
-    <hyperlink ref="D7" r:id="rId9"/>
-    <hyperlink ref="F7" r:id="rId10"/>
-    <hyperlink ref="D9" r:id="rId11"/>
-    <hyperlink ref="D10" r:id="rId12"/>
-    <hyperlink ref="D11" r:id="rId13"/>
-    <hyperlink ref="F9" r:id="rId14"/>
-    <hyperlink ref="F10" r:id="rId15"/>
-    <hyperlink ref="F11" r:id="rId16"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{64223B37-7A1C-4DBB-92B5-0E1E3D0A56AE}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{795CD519-DC69-4F3F-A6C3-C9142B071541}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{5BD102D5-7183-4036-9605-90A060128675}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{13DCF435-A854-43A6-8E34-7C50444F8B9A}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{B3BCCFA6-1ADE-4D3F-9B07-40B62FA5D84E}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{5D5E9EFF-9AD0-4892-888D-47C084AE3A6E}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{2B6BAB80-15B9-4F6C-989B-FED22F654E2E}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{231D4785-D210-432B-AFAB-EA6BD60346CF}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{346570C0-DCA7-408E-9039-162883AE5781}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{1FE0989C-5BFD-450F-9BB3-35CF66BD38FA}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{27A592E6-50B9-47C7-B78C-F35F11331C30}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{7F966460-6003-4701-91E0-DEE37CA69338}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{829DA6E1-0ED2-4045-A984-F663B08831CB}"/>
+    <hyperlink ref="F13" r:id="rId14" xr:uid="{5B0B4A81-1DD1-43B2-A647-9EBEFF3C2EC0}"/>
+    <hyperlink ref="F14" r:id="rId15" xr:uid="{73C6FB7D-F621-49F4-8F41-F22391E9752D}"/>
+    <hyperlink ref="F15" r:id="rId16" xr:uid="{DF7A98C7-2D15-4C49-B42C-916B397B243D}"/>
+    <hyperlink ref="D8" r:id="rId17" xr:uid="{503A52F5-340A-44F4-B9EB-DE909A037BE1}"/>
+    <hyperlink ref="F8" r:id="rId18" xr:uid="{0FEEB794-EB37-4854-9398-8BC533A31329}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{9C28ED66-7671-4F53-B1F1-1968E0827E1D}"/>
+    <hyperlink ref="F18" r:id="rId20" xr:uid="{3DAC243A-818F-4C98-A259-0C06AAB8FBCA}"/>
+    <hyperlink ref="D19" r:id="rId21" xr:uid="{4787697C-C72E-4678-AC89-AA3AAF3EB785}"/>
+    <hyperlink ref="F19" r:id="rId22" xr:uid="{D8FF7426-1A29-411A-B525-83D962CE3C3A}"/>
+    <hyperlink ref="D20" r:id="rId23" xr:uid="{A473F4EB-4151-46E4-BDF8-9035527C6DB0}"/>
+    <hyperlink ref="F20" r:id="rId24" xr:uid="{B23EDC98-7D60-4AC4-8BB1-F9A1CFADB722}"/>
+    <hyperlink ref="D21" r:id="rId25" xr:uid="{841910EE-23D9-43AC-A779-44A49FDBC601}"/>
+    <hyperlink ref="F21" r:id="rId26" xr:uid="{98B84911-76CA-41BC-A64D-D00044D4E4CD}"/>
+    <hyperlink ref="D23" r:id="rId27" xr:uid="{558F7738-0299-4A24-A3F6-A6B976F0AE63}"/>
+    <hyperlink ref="F23" r:id="rId28" xr:uid="{30964503-FC80-4F96-86E6-DB07B4294E0A}"/>
+    <hyperlink ref="D24" r:id="rId29" xr:uid="{FC6F476C-0FE5-4D2A-89CB-D5F7C32CA75F}"/>
+    <hyperlink ref="F24" r:id="rId30" xr:uid="{124D0931-8319-4710-AB8A-68BB8EA87282}"/>
+    <hyperlink ref="D25" r:id="rId31" xr:uid="{E605164B-DA56-4A92-AB55-28FC2A25C543}"/>
+    <hyperlink ref="F25" r:id="rId32" xr:uid="{3CA84831-7C00-4062-9F18-C88CF72018F0}"/>
+    <hyperlink ref="D26" r:id="rId33" xr:uid="{81AB78FB-DE52-4554-B40C-75EDA5AF25B8}"/>
+    <hyperlink ref="F26" r:id="rId34" xr:uid="{A4DE7057-E275-4EBF-AB3F-9B10EAD66D7F}"/>
+    <hyperlink ref="D29" r:id="rId35" xr:uid="{AF162836-F92F-40FB-BCE4-035332279C88}"/>
+    <hyperlink ref="F29" r:id="rId36" xr:uid="{424D4824-CCC6-4B7F-AC5D-6E0ADEDB7165}"/>
+    <hyperlink ref="D10" r:id="rId37" xr:uid="{659188D6-69B5-4ADE-85CB-C38C355249BF}"/>
+    <hyperlink ref="F10" r:id="rId38" xr:uid="{36879109-A4DF-43DD-A08C-75546ADFDFBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CDD8ED-DDDB-487C-A857-5B889C46EE23}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="217">
   <si>
     <t>TC_NO</t>
   </si>
@@ -86,9 +80,6 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>k33p1ngITr3al</t>
   </si>
   <si>
@@ -360,9 +351,6 @@
   </si>
   <si>
     <t>002_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomEssentialsPackage</t>
-  </si>
-  <si>
-    <t>ftrfrank1+feb18@gmail.com</t>
   </si>
   <si>
     <t>003_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomSportsPackage</t>
@@ -817,9 +805,6 @@
     <t>006_CC_.COM_SS_AS_E-Com_OS_OrderStatusPage</t>
   </si>
   <si>
-    <t>Link with TC07</t>
-  </si>
-  <si>
     <t>TC1</t>
   </si>
   <si>
@@ -830,12 +815,18 @@
   </si>
   <si>
     <t>009_CC_.COM_SS_AS_E-Com_REV_ImportantInformation</t>
+  </si>
+  <si>
+    <t>ftrfrank1+vv@gmail.com</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1312,21 +1303,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,52 +1346,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="27" t="s">
-        <v>62</v>
-      </c>
       <c r="K1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="27" t="s">
-        <v>66</v>
-      </c>
       <c r="N1" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="30" t="s">
-        <v>98</v>
-      </c>
       <c r="Q1" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1408,22 +1399,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -1441,28 +1432,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>108</v>
       </c>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -1478,36 +1469,36 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="28" t="s">
-        <v>68</v>
-      </c>
       <c r="M4" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
@@ -1519,22 +1510,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
@@ -1552,22 +1543,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -1576,10 +1567,10 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P6" s="26"/>
       <c r="Q6" s="28"/>
@@ -1589,22 +1580,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
@@ -1615,7 +1606,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="28"/>
     </row>
@@ -1624,22 +1615,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
@@ -1657,22 +1648,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
@@ -1690,25 +1681,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -1719,7 +1710,7 @@
       <c r="O10" s="28"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1727,22 +1718,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
@@ -1760,16 +1751,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
@@ -1805,19 +1796,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="D11" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="D12" r:id="rId8"/>
+    <hyperlink ref="F6" r:id="rId9"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="F4" r:id="rId11"/>
+    <hyperlink ref="F5" r:id="rId12"/>
+    <hyperlink ref="F10" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -1825,11 +1816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B5CF28-B0AF-4F5B-BB34-787D2EEA0390}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C2" sqref="C2:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,22 +1848,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>21</v>
       </c>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
@@ -1888,22 +1879,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -1919,16 +1910,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="28"/>
@@ -1946,16 +1937,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="28"/>
@@ -1973,16 +1964,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2000,16 +1991,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2027,16 +2018,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2054,16 +2045,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2081,16 +2072,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2108,16 +2099,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="28"/>
@@ -2135,16 +2126,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="28"/>
@@ -2162,16 +2153,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
@@ -2189,16 +2180,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -2216,16 +2207,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
@@ -2243,16 +2234,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
@@ -2270,16 +2261,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -2297,16 +2288,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
@@ -2321,19 +2312,19 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -2348,19 +2339,19 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -2375,19 +2366,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -2402,19 +2393,19 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
@@ -2429,19 +2420,19 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
@@ -2456,19 +2447,19 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -2483,19 +2474,19 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
@@ -2510,19 +2501,19 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
@@ -2537,19 +2528,19 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -2564,19 +2555,19 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
@@ -2591,19 +2582,19 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -2618,19 +2609,19 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
@@ -2645,19 +2636,19 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
@@ -2672,19 +2663,19 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
@@ -2699,19 +2690,19 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
@@ -2726,19 +2717,19 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
@@ -2753,19 +2744,19 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
@@ -2780,19 +2771,19 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
@@ -2807,19 +2798,19 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
@@ -2834,19 +2825,19 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
@@ -2861,19 +2852,19 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
@@ -2888,19 +2879,19 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -2915,19 +2906,19 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -2943,7 +2934,9 @@
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
+      <c r="C41" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="D41" s="29"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
@@ -2959,16 +2952,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>186</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>188</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -2984,16 +2977,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -3009,16 +3002,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -3068,58 +3061,58 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{72DEF754-E581-4D73-9018-22B5FD7BE89D}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{685767DA-A6E0-424D-847F-8569B2C45B15}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{E65B59D8-4FAE-448E-A867-C9611CEA60F1}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{085C4E32-708D-4E4E-A6B9-F4B23CA59515}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{B542E3DE-1B86-46E3-92FD-B6E88AED02F8}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{6C0FEA6A-4D0E-4EA6-AF24-E50F1D85B4AF}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{3EEB6386-7F3F-41EC-AA60-C2D9CFD40F53}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{4341D7A4-A40C-44D8-90EF-DEFA7E6971E9}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{E2361780-C30C-4FB3-B428-D7D8C8345873}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{69957EA1-658F-4120-90A2-FEFA0E7EF91B}"/>
-    <hyperlink ref="D16" r:id="rId11" xr:uid="{30691EAA-E69C-4F84-B883-2BD4ADE2FA8B}"/>
-    <hyperlink ref="D17" r:id="rId12" xr:uid="{865F1275-4AC0-4985-9AC2-C09FC68B6534}"/>
-    <hyperlink ref="D18" r:id="rId13" xr:uid="{D49F78C0-2845-4E39-BCF4-81296FF10C17}"/>
-    <hyperlink ref="D19" r:id="rId14" xr:uid="{DA7AD4A0-33F8-4315-8471-F3B2ED9A1D28}"/>
-    <hyperlink ref="D20" r:id="rId15" xr:uid="{D66FEFCA-2187-4062-AE1B-FEA390FEEAD7}"/>
-    <hyperlink ref="D21" r:id="rId16" xr:uid="{CD147AB1-3DEF-479E-A835-291472F516C3}"/>
-    <hyperlink ref="D22" r:id="rId17" xr:uid="{5DFF6C3D-99E7-444A-AA86-373C508AAA63}"/>
-    <hyperlink ref="D23" r:id="rId18" xr:uid="{A7E11B6F-0AE0-4E24-9509-B0E658528045}"/>
-    <hyperlink ref="D24" r:id="rId19" xr:uid="{EC390176-D7FC-4B5D-862B-3EF2130D0E2C}"/>
-    <hyperlink ref="D25" r:id="rId20" xr:uid="{29776F7C-0B61-4136-B6D9-81DE62E60B90}"/>
-    <hyperlink ref="D26" r:id="rId21" xr:uid="{5610CF5B-FE9F-4328-888C-B9BDE88C3DAA}"/>
-    <hyperlink ref="D27" r:id="rId22" xr:uid="{F306B280-01BC-4384-9B1D-EEEC1C2BB817}"/>
-    <hyperlink ref="D28" r:id="rId23" xr:uid="{133E16BD-198C-403A-9AB3-AA2608289096}"/>
-    <hyperlink ref="D29" r:id="rId24" xr:uid="{D0858FC2-9A39-4358-BBE2-D97C13B6A339}"/>
-    <hyperlink ref="D30" r:id="rId25" xr:uid="{59FDD410-273F-4839-981F-A5F34666AA8E}"/>
-    <hyperlink ref="D31" r:id="rId26" xr:uid="{EF587E0E-473A-4EDD-92C0-5FF2845D70A4}"/>
-    <hyperlink ref="D32" r:id="rId27" xr:uid="{7AF7FB66-25FB-400E-9EC6-ADC6A0E5E00D}"/>
-    <hyperlink ref="D33" r:id="rId28" xr:uid="{EE37C220-1378-4AAF-9510-B42B113247EF}"/>
-    <hyperlink ref="D34" r:id="rId29" xr:uid="{CCF00876-4DB3-492C-87B5-EC1F5D7BAD73}"/>
-    <hyperlink ref="D35" r:id="rId30" xr:uid="{4B862107-DB93-4207-BB96-508266008ECD}"/>
-    <hyperlink ref="D36" r:id="rId31" xr:uid="{9F757E8F-171A-4AD2-9B95-8AB0E71C7DF3}"/>
-    <hyperlink ref="D37" r:id="rId32" xr:uid="{00263129-E355-45DF-9914-6F77FFB67F71}"/>
-    <hyperlink ref="D38" r:id="rId33" xr:uid="{967585D7-E636-42B0-8D45-A73A4814E590}"/>
-    <hyperlink ref="D39" r:id="rId34" xr:uid="{38C2B510-F092-4BF5-9D8D-42B8A6AE374B}"/>
-    <hyperlink ref="D40" r:id="rId35" xr:uid="{8C867F5E-DD3D-4AD2-829C-1FE7547BEF36}"/>
-    <hyperlink ref="D43" r:id="rId36" location="/" xr:uid="{9F5A8E16-9BBC-4819-91B6-9C88378739F9}"/>
-    <hyperlink ref="D44" r:id="rId37" location="/" xr:uid="{731A610A-0880-4FC2-9F73-AD1F67BB8344}"/>
-    <hyperlink ref="D42" r:id="rId38" location="/" xr:uid="{7C212673-A979-4F4F-A68B-A26A5156D365}"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="D11" r:id="rId6"/>
+    <hyperlink ref="D12" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D14" r:id="rId9"/>
+    <hyperlink ref="D15" r:id="rId10"/>
+    <hyperlink ref="D16" r:id="rId11"/>
+    <hyperlink ref="D17" r:id="rId12"/>
+    <hyperlink ref="D18" r:id="rId13"/>
+    <hyperlink ref="D19" r:id="rId14"/>
+    <hyperlink ref="D20" r:id="rId15"/>
+    <hyperlink ref="D21" r:id="rId16"/>
+    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D23" r:id="rId18"/>
+    <hyperlink ref="D24" r:id="rId19"/>
+    <hyperlink ref="D25" r:id="rId20"/>
+    <hyperlink ref="D26" r:id="rId21"/>
+    <hyperlink ref="D27" r:id="rId22"/>
+    <hyperlink ref="D28" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24"/>
+    <hyperlink ref="D30" r:id="rId25"/>
+    <hyperlink ref="D31" r:id="rId26"/>
+    <hyperlink ref="D32" r:id="rId27"/>
+    <hyperlink ref="D33" r:id="rId28"/>
+    <hyperlink ref="D34" r:id="rId29"/>
+    <hyperlink ref="D35" r:id="rId30"/>
+    <hyperlink ref="D36" r:id="rId31"/>
+    <hyperlink ref="D37" r:id="rId32"/>
+    <hyperlink ref="D38" r:id="rId33"/>
+    <hyperlink ref="D39" r:id="rId34"/>
+    <hyperlink ref="D40" r:id="rId35"/>
+    <hyperlink ref="D43" r:id="rId36" location="/"/>
+    <hyperlink ref="D44" r:id="rId37" location="/"/>
+    <hyperlink ref="D42" r:id="rId38" location="/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3158,19 +3151,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3178,19 +3171,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3198,19 +3191,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3218,19 +3211,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,19 +3231,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3258,19 +3251,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>68</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3278,19 +3271,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3298,19 +3291,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3318,19 +3311,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3338,19 +3331,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3358,19 +3351,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3378,19 +3371,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3398,19 +3391,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3418,19 +3411,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3438,19 +3431,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3458,26 +3451,26 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3485,24 +3478,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="12" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
@@ -3517,37 +3510,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3555,33 +3548,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="9"/>
       <c r="I2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3589,19 +3582,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3615,25 +3608,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -3645,19 +3638,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3671,19 +3664,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -3697,19 +3690,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -3723,19 +3716,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -3749,19 +3742,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3775,19 +3768,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3798,10 +3791,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="G4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3809,14 +3802,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3834,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3851,16 +3844,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3868,16 +3861,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>18</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3885,16 +3878,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3902,16 +3895,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>18</v>
+        <v>74</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3919,16 +3912,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>18</v>
+        <v>75</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3936,16 +3929,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>18</v>
+        <v>76</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3953,16 +3946,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>18</v>
+        <v>77</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3970,16 +3963,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3987,16 +3980,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>18</v>
+        <v>79</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4004,16 +3997,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>18</v>
+        <v>80</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4021,16 +4014,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>18</v>
+        <v>81</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4038,16 +4031,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>18</v>
+        <v>82</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,16 +4048,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>18</v>
+        <v>83</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4072,16 +4065,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>18</v>
+        <v>84</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4089,16 +4082,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>18</v>
+        <v>85</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4106,23 +4099,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>18</v>
+        <v>86</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -4130,11 +4123,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4154,25 +4147,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4185,7 +4178,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -4206,22 +4199,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
@@ -4237,22 +4230,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
@@ -4268,22 +4261,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
@@ -4299,22 +4292,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -4330,22 +4323,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
@@ -4361,22 +4354,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
@@ -4390,9 +4383,11 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="20"/>
+        <v>195</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -4411,22 +4406,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>18</v>
+        <v>196</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
@@ -4440,7 +4435,9 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="C11" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -4457,9 +4454,11 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -4478,22 +4477,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
@@ -4509,22 +4508,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
@@ -4540,22 +4539,22 @@
         <v>10</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
@@ -4569,7 +4568,9 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="C16" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="D16" s="21"/>
       <c r="E16" s="28"/>
       <c r="F16" s="21"/>
@@ -4586,9 +4587,11 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="20"/>
+        <v>199</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -4607,22 +4610,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -4638,22 +4641,22 @@
         <v>12</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
@@ -4669,22 +4672,22 @@
         <v>13</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
@@ -4700,22 +4703,22 @@
         <v>14</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
@@ -4729,9 +4732,11 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="20"/>
+        <v>204</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -4750,22 +4755,22 @@
         <v>15</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
@@ -4781,22 +4786,22 @@
         <v>16</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
@@ -4809,25 +4814,25 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
@@ -4840,25 +4845,25 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
@@ -4872,9 +4877,11 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="20"/>
+        <v>209</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -4891,10 +4898,10 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -4911,25 +4918,25 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -4943,9 +4950,11 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="20"/>
+        <v>213</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -4962,7 +4971,7 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -5218,44 +5227,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{64223B37-7A1C-4DBB-92B5-0E1E3D0A56AE}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{795CD519-DC69-4F3F-A6C3-C9142B071541}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{5BD102D5-7183-4036-9605-90A060128675}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{13DCF435-A854-43A6-8E34-7C50444F8B9A}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{B3BCCFA6-1ADE-4D3F-9B07-40B62FA5D84E}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{5D5E9EFF-9AD0-4892-888D-47C084AE3A6E}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{2B6BAB80-15B9-4F6C-989B-FED22F654E2E}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{231D4785-D210-432B-AFAB-EA6BD60346CF}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{346570C0-DCA7-408E-9039-162883AE5781}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{1FE0989C-5BFD-450F-9BB3-35CF66BD38FA}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{27A592E6-50B9-47C7-B78C-F35F11331C30}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{7F966460-6003-4701-91E0-DEE37CA69338}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{829DA6E1-0ED2-4045-A984-F663B08831CB}"/>
-    <hyperlink ref="F13" r:id="rId14" xr:uid="{5B0B4A81-1DD1-43B2-A647-9EBEFF3C2EC0}"/>
-    <hyperlink ref="F14" r:id="rId15" xr:uid="{73C6FB7D-F621-49F4-8F41-F22391E9752D}"/>
-    <hyperlink ref="F15" r:id="rId16" xr:uid="{DF7A98C7-2D15-4C49-B42C-916B397B243D}"/>
-    <hyperlink ref="D8" r:id="rId17" xr:uid="{503A52F5-340A-44F4-B9EB-DE909A037BE1}"/>
-    <hyperlink ref="F8" r:id="rId18" xr:uid="{0FEEB794-EB37-4854-9398-8BC533A31329}"/>
-    <hyperlink ref="D18" r:id="rId19" xr:uid="{9C28ED66-7671-4F53-B1F1-1968E0827E1D}"/>
-    <hyperlink ref="F18" r:id="rId20" xr:uid="{3DAC243A-818F-4C98-A259-0C06AAB8FBCA}"/>
-    <hyperlink ref="D19" r:id="rId21" xr:uid="{4787697C-C72E-4678-AC89-AA3AAF3EB785}"/>
-    <hyperlink ref="F19" r:id="rId22" xr:uid="{D8FF7426-1A29-411A-B525-83D962CE3C3A}"/>
-    <hyperlink ref="D20" r:id="rId23" xr:uid="{A473F4EB-4151-46E4-BDF8-9035527C6DB0}"/>
-    <hyperlink ref="F20" r:id="rId24" xr:uid="{B23EDC98-7D60-4AC4-8BB1-F9A1CFADB722}"/>
-    <hyperlink ref="D21" r:id="rId25" xr:uid="{841910EE-23D9-43AC-A779-44A49FDBC601}"/>
-    <hyperlink ref="F21" r:id="rId26" xr:uid="{98B84911-76CA-41BC-A64D-D00044D4E4CD}"/>
-    <hyperlink ref="D23" r:id="rId27" xr:uid="{558F7738-0299-4A24-A3F6-A6B976F0AE63}"/>
-    <hyperlink ref="F23" r:id="rId28" xr:uid="{30964503-FC80-4F96-86E6-DB07B4294E0A}"/>
-    <hyperlink ref="D24" r:id="rId29" xr:uid="{FC6F476C-0FE5-4D2A-89CB-D5F7C32CA75F}"/>
-    <hyperlink ref="F24" r:id="rId30" xr:uid="{124D0931-8319-4710-AB8A-68BB8EA87282}"/>
-    <hyperlink ref="D25" r:id="rId31" xr:uid="{E605164B-DA56-4A92-AB55-28FC2A25C543}"/>
-    <hyperlink ref="F25" r:id="rId32" xr:uid="{3CA84831-7C00-4062-9F18-C88CF72018F0}"/>
-    <hyperlink ref="D26" r:id="rId33" xr:uid="{81AB78FB-DE52-4554-B40C-75EDA5AF25B8}"/>
-    <hyperlink ref="F26" r:id="rId34" xr:uid="{A4DE7057-E275-4EBF-AB3F-9B10EAD66D7F}"/>
-    <hyperlink ref="D29" r:id="rId35" xr:uid="{AF162836-F92F-40FB-BCE4-035332279C88}"/>
-    <hyperlink ref="F29" r:id="rId36" xr:uid="{424D4824-CCC6-4B7F-AC5D-6E0ADEDB7165}"/>
-    <hyperlink ref="D10" r:id="rId37" xr:uid="{659188D6-69B5-4ADE-85CB-C38C355249BF}"/>
-    <hyperlink ref="F10" r:id="rId38" xr:uid="{36879109-A4DF-43DD-A08C-75546ADFDFBC}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="D7" r:id="rId9"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="D13" r:id="rId11"/>
+    <hyperlink ref="D14" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="F13" r:id="rId14"/>
+    <hyperlink ref="F14" r:id="rId15"/>
+    <hyperlink ref="F15" r:id="rId16"/>
+    <hyperlink ref="D8" r:id="rId17"/>
+    <hyperlink ref="F8" r:id="rId18"/>
+    <hyperlink ref="D18" r:id="rId19"/>
+    <hyperlink ref="F18" r:id="rId20"/>
+    <hyperlink ref="D19" r:id="rId21"/>
+    <hyperlink ref="F19" r:id="rId22"/>
+    <hyperlink ref="D20" r:id="rId23"/>
+    <hyperlink ref="F20" r:id="rId24"/>
+    <hyperlink ref="D21" r:id="rId25"/>
+    <hyperlink ref="F21" r:id="rId26"/>
+    <hyperlink ref="D23" r:id="rId27"/>
+    <hyperlink ref="F23" r:id="rId28"/>
+    <hyperlink ref="D24" r:id="rId29"/>
+    <hyperlink ref="F24" r:id="rId30"/>
+    <hyperlink ref="D25" r:id="rId31"/>
+    <hyperlink ref="F25" r:id="rId32"/>
+    <hyperlink ref="D26" r:id="rId33"/>
+    <hyperlink ref="F26" r:id="rId34"/>
+    <hyperlink ref="D29" r:id="rId35"/>
+    <hyperlink ref="F29" r:id="rId36"/>
+    <hyperlink ref="D10" r:id="rId37"/>
+    <hyperlink ref="F10" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId39"/>

--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4A3696-8CED-4762-8FEB-7D5CC9617820}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="192">
   <si>
     <t>TC_NO</t>
   </si>
@@ -338,9 +344,6 @@
     <t>017_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video HOP Upgrade</t>
   </si>
   <si>
-    <t>018_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video ADD</t>
-  </si>
-  <si>
     <t>Order_Id</t>
   </si>
   <si>
@@ -381,60 +384,6 @@
   </si>
   <si>
     <t>Add Video Package</t>
-  </si>
-  <si>
-    <t>Customize Premium Channels</t>
-  </si>
-  <si>
-    <t>004_CC_.COM_SS_AS_E-Com_VC_ReplaceBundleinCart</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001_CC_.COM_SS_AS_E-Com_VC_PremiumChannelPackages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-003_CC_.COM_SS_AS_E-Com_VC_PremiumChannelOrderSummary</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>008_CC_.COM_SS_AS_E-Com_VC_AddChannelPackage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-009_CC_.COM_SS_AS_E-Com_VC_AddAlacarteChannels</t>
-    </r>
   </si>
   <si>
     <t>ftrfrank1+mar13@gmail.com</t>
@@ -697,137 +646,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">024_CC_.COM_SS_AS_E-Com_AVP_Bundle Selection
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>026_CC_.COM_SS_AS_E-Com_AVP_Bundle Price</t>
-    </r>
-  </si>
-  <si>
-    <t>Complete Order</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001_CC_.COM_SS_AS_E-Com_OC_Order Confirmation Details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-002_CC_.COM_SS_AS_E-Com_OC_Check Status Link
-003_CC_.COM_SS_AS_E-Com_OC_Order Summary-TV
-004_CC_.COM_SS_AS_E-Com_OC_Important Information</t>
-    </r>
-  </si>
-  <si>
-    <t>Ftrfrank1+shopvideo@gmail.com</t>
-  </si>
-  <si>
-    <t>ftrfrank1+addtest03@gmail.com</t>
-  </si>
-  <si>
-    <t>Customize Router Selection</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001_CC_.COM_SS_AS_E-Com_DC_SelectRouterInformation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-004_CC_.COM_SS_AS_E-Com_DC_NoRouterSelected</t>
-    </r>
-  </si>
-  <si>
-    <t>003_CC_.COM_SS_AS_E-Com_DC_SelectBHR4Router</t>
-  </si>
-  <si>
-    <t>005_CC_.COM_SS_AS_E-Com_DC_RouterRental</t>
-  </si>
-  <si>
-    <t>006_CC_.COM_SS_AS_E-Com_DC_RouterPurchase</t>
-  </si>
-  <si>
-    <t>Customize Streaming Experience</t>
-  </si>
-  <si>
-    <t>001_CC_.COM_SS_AS_E-Com_VC_2 TVs_StandardDVR</t>
-  </si>
-  <si>
-    <t>002_CC_.COM_SS_AS_E-Com_VC_3 TVs_QuantumEnhanced</t>
-  </si>
-  <si>
-    <t>003_CC_.COM_SS_AS_E-Com_VC_5 TVs_StandardNODVR</t>
-  </si>
-  <si>
-    <t>004_CC_.COM_SS_AS_E-Com_VC_Updated Package-EquipmentReflectsinOrderSummary</t>
-  </si>
-  <si>
-    <t>Other Scenarios</t>
-  </si>
-  <si>
-    <t>006_CC_.COM_SS_AS_E-Com_OS_OrderStatusPage</t>
-  </si>
-  <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>008_CC_.COM_SS_AS_E-Com_OS_AgentPortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Review Order</t>
-  </si>
-  <si>
-    <t>009_CC_.COM_SS_AS_E-Com_REV_ImportantInformation</t>
-  </si>
-  <si>
     <t>ftrfrank1+vv@gmail.com</t>
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>IE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,13 +721,6 @@
       <color rgb="FF444444"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -977,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1026,10 +851,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1303,21 +1124,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1212,7 @@
         <v>97</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1402,7 +1223,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>69</v>
@@ -1435,7 +1256,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>69</v>
@@ -1450,10 +1271,10 @@
         <v>53</v>
       </c>
       <c r="H3" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>107</v>
       </c>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -1472,7 +1293,7 @@
         <v>89</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>69</v>
@@ -1481,7 +1302,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>53</v>
@@ -1513,7 +1334,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>69</v>
@@ -1522,7 +1343,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>53</v>
@@ -1546,7 +1367,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>69</v>
@@ -1555,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>53</v>
@@ -1567,10 +1388,10 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P6" s="26"/>
       <c r="Q6" s="28"/>
@@ -1583,7 +1404,7 @@
         <v>92</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>69</v>
@@ -1592,7 +1413,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>53</v>
@@ -1606,7 +1427,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="28"/>
     </row>
@@ -1618,7 +1439,7 @@
         <v>93</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>69</v>
@@ -1651,7 +1472,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>70</v>
@@ -1684,7 +1505,7 @@
         <v>101</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>69</v>
@@ -1693,13 +1514,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -1721,7 +1542,7 @@
         <v>103</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>69</v>
@@ -1730,7 +1551,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>100</v>
@@ -1747,80 +1568,50 @@
       <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="28"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D11" r:id="rId6"/>
-    <hyperlink ref="F11" r:id="rId7"/>
-    <hyperlink ref="D12" r:id="rId8"/>
-    <hyperlink ref="F6" r:id="rId9"/>
-    <hyperlink ref="F7" r:id="rId10"/>
-    <hyperlink ref="F4" r:id="rId11"/>
-    <hyperlink ref="F5" r:id="rId12"/>
-    <hyperlink ref="F10" r:id="rId13"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C44"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>69</v>
@@ -1910,10 +1701,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>69</v>
@@ -1937,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>69</v>
@@ -1964,10 +1755,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>69</v>
@@ -1991,10 +1782,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>69</v>
@@ -2018,10 +1809,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>69</v>
@@ -2045,10 +1836,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>69</v>
@@ -2072,10 +1863,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>70</v>
@@ -2099,10 +1890,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>69</v>
@@ -2126,10 +1917,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>69</v>
@@ -2153,10 +1944,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>69</v>
@@ -2180,10 +1971,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>69</v>
@@ -2207,10 +1998,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>69</v>
@@ -2234,10 +2025,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>69</v>
@@ -2261,10 +2052,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>69</v>
@@ -2288,10 +2079,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>69</v>
@@ -2312,13 +2103,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>69</v>
@@ -2339,13 +2130,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>69</v>
@@ -2366,13 +2157,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>69</v>
@@ -2393,13 +2184,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>69</v>
@@ -2420,13 +2211,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>69</v>
@@ -2447,13 +2238,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>69</v>
@@ -2474,13 +2265,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>69</v>
@@ -2501,13 +2292,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>69</v>
@@ -2528,13 +2319,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>69</v>
@@ -2555,13 +2346,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>69</v>
@@ -2582,13 +2373,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>69</v>
@@ -2609,13 +2400,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>69</v>
@@ -2636,13 +2427,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>69</v>
@@ -2663,13 +2454,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>69</v>
@@ -2690,13 +2481,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>69</v>
@@ -2717,13 +2508,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>69</v>
@@ -2744,13 +2535,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>69</v>
@@ -2771,13 +2562,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>69</v>
@@ -2798,13 +2589,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>69</v>
@@ -2825,13 +2616,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>69</v>
@@ -2852,13 +2643,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>69</v>
@@ -2879,13 +2670,13 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>69</v>
@@ -2906,13 +2697,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>69</v>
@@ -2935,7 +2726,7 @@
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="28"/>
@@ -2952,16 +2743,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -2977,16 +2768,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -3002,16 +2793,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -3061,51 +2852,51 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D11" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7"/>
-    <hyperlink ref="D13" r:id="rId8"/>
-    <hyperlink ref="D14" r:id="rId9"/>
-    <hyperlink ref="D15" r:id="rId10"/>
-    <hyperlink ref="D16" r:id="rId11"/>
-    <hyperlink ref="D17" r:id="rId12"/>
-    <hyperlink ref="D18" r:id="rId13"/>
-    <hyperlink ref="D19" r:id="rId14"/>
-    <hyperlink ref="D20" r:id="rId15"/>
-    <hyperlink ref="D21" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
-    <hyperlink ref="D23" r:id="rId18"/>
-    <hyperlink ref="D24" r:id="rId19"/>
-    <hyperlink ref="D25" r:id="rId20"/>
-    <hyperlink ref="D26" r:id="rId21"/>
-    <hyperlink ref="D27" r:id="rId22"/>
-    <hyperlink ref="D28" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
-    <hyperlink ref="D30" r:id="rId25"/>
-    <hyperlink ref="D31" r:id="rId26"/>
-    <hyperlink ref="D32" r:id="rId27"/>
-    <hyperlink ref="D33" r:id="rId28"/>
-    <hyperlink ref="D34" r:id="rId29"/>
-    <hyperlink ref="D35" r:id="rId30"/>
-    <hyperlink ref="D36" r:id="rId31"/>
-    <hyperlink ref="D37" r:id="rId32"/>
-    <hyperlink ref="D38" r:id="rId33"/>
-    <hyperlink ref="D39" r:id="rId34"/>
-    <hyperlink ref="D40" r:id="rId35"/>
-    <hyperlink ref="D43" r:id="rId36" location="/"/>
-    <hyperlink ref="D44" r:id="rId37" location="/"/>
-    <hyperlink ref="D42" r:id="rId38" location="/"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D28" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D29" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D30" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D31" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D32" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D34" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D35" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D36" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D37" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D38" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D39" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D40" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D43" r:id="rId36" location="/" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D44" r:id="rId37" location="/" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D42" r:id="rId38" location="/" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3154,7 +2945,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>71</v>
@@ -3174,7 +2965,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>71</v>
@@ -3194,7 +2985,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>71</v>
@@ -3214,7 +3005,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>71</v>
@@ -3234,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>71</v>
@@ -3254,7 +3045,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>71</v>
@@ -3274,7 +3065,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>71</v>
@@ -3294,7 +3085,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>71</v>
@@ -3314,7 +3105,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>71</v>
@@ -3334,7 +3125,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>71</v>
@@ -3354,7 +3145,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>71</v>
@@ -3374,7 +3165,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>71</v>
@@ -3394,7 +3185,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>71</v>
@@ -3414,7 +3205,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>71</v>
@@ -3434,7 +3225,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>71</v>
@@ -3454,7 +3245,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>71</v>
@@ -3468,9 +3259,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3478,7 +3269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3551,7 +3342,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -3585,7 +3376,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>71</v>
@@ -3611,7 +3402,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>71</v>
@@ -3641,7 +3432,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>71</v>
@@ -3667,7 +3458,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>71</v>
@@ -3693,7 +3484,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>71</v>
@@ -3719,7 +3510,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>71</v>
@@ -3745,7 +3536,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>71</v>
@@ -3771,7 +3562,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>71</v>
@@ -3791,10 +3582,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3802,7 +3593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3847,7 +3638,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>69</v>
@@ -3864,7 +3655,7 @@
         <v>72</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>69</v>
@@ -3881,7 +3672,7 @@
         <v>73</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>69</v>
@@ -3898,7 +3689,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>69</v>
@@ -3915,7 +3706,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>69</v>
@@ -3932,7 +3723,7 @@
         <v>76</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>69</v>
@@ -3949,7 +3740,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>69</v>
@@ -3966,7 +3757,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>69</v>
@@ -3983,7 +3774,7 @@
         <v>79</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>69</v>
@@ -4000,7 +3791,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>69</v>
@@ -4017,7 +3808,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>69</v>
@@ -4034,7 +3825,7 @@
         <v>82</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>69</v>
@@ -4051,7 +3842,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>69</v>
@@ -4068,7 +3859,7 @@
         <v>84</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>69</v>
@@ -4085,7 +3876,7 @@
         <v>85</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>69</v>
@@ -4102,7 +3893,7 @@
         <v>86</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>69</v>
@@ -4113,9 +3904,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -4123,11 +3914,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,7 +3956,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4178,7 +3969,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -4199,10 +3990,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>69</v>
@@ -4211,7 +4002,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>53</v>
@@ -4230,10 +4021,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>69</v>
@@ -4242,7 +4033,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>53</v>
@@ -4261,10 +4052,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>69</v>
@@ -4273,7 +4064,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>53</v>
@@ -4292,10 +4083,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>69</v>
@@ -4304,7 +4095,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>53</v>
@@ -4323,10 +4114,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>69</v>
@@ -4335,7 +4126,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>53</v>
@@ -4349,28 +4140,14 @@
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>53</v>
-      </c>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
@@ -4381,17 +4158,13 @@
       <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -4401,28 +4174,14 @@
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
-    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>53</v>
-      </c>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -4435,9 +4194,7 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="28" t="s">
-        <v>216</v>
-      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -4452,17 +4209,13 @@
       <c r="O11" s="28"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
@@ -4472,28 +4225,14 @@
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>53</v>
-      </c>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
@@ -4504,27 +4243,13 @@
       <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
@@ -4534,28 +4259,14 @@
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>53</v>
-      </c>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -4568,13 +4279,11 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="21"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -4585,17 +4294,13 @@
       <c r="O16" s="28"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -4605,28 +4310,14 @@
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
     </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>53</v>
-      </c>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
@@ -4637,27 +4328,13 @@
       <c r="O18" s="28"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
@@ -4668,27 +4345,13 @@
       <c r="O19" s="28"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
@@ -4699,27 +4362,13 @@
       <c r="O20" s="28"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -4729,544 +4378,20 @@
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="D6" r:id="rId7"/>
-    <hyperlink ref="F6" r:id="rId8"/>
-    <hyperlink ref="D7" r:id="rId9"/>
-    <hyperlink ref="F7" r:id="rId10"/>
-    <hyperlink ref="D13" r:id="rId11"/>
-    <hyperlink ref="D14" r:id="rId12"/>
-    <hyperlink ref="D15" r:id="rId13"/>
-    <hyperlink ref="F13" r:id="rId14"/>
-    <hyperlink ref="F14" r:id="rId15"/>
-    <hyperlink ref="F15" r:id="rId16"/>
-    <hyperlink ref="D8" r:id="rId17"/>
-    <hyperlink ref="F8" r:id="rId18"/>
-    <hyperlink ref="D18" r:id="rId19"/>
-    <hyperlink ref="F18" r:id="rId20"/>
-    <hyperlink ref="D19" r:id="rId21"/>
-    <hyperlink ref="F19" r:id="rId22"/>
-    <hyperlink ref="D20" r:id="rId23"/>
-    <hyperlink ref="F20" r:id="rId24"/>
-    <hyperlink ref="D21" r:id="rId25"/>
-    <hyperlink ref="F21" r:id="rId26"/>
-    <hyperlink ref="D23" r:id="rId27"/>
-    <hyperlink ref="F23" r:id="rId28"/>
-    <hyperlink ref="D24" r:id="rId29"/>
-    <hyperlink ref="F24" r:id="rId30"/>
-    <hyperlink ref="D25" r:id="rId31"/>
-    <hyperlink ref="F25" r:id="rId32"/>
-    <hyperlink ref="D26" r:id="rId33"/>
-    <hyperlink ref="F26" r:id="rId34"/>
-    <hyperlink ref="D29" r:id="rId35"/>
-    <hyperlink ref="F29" r:id="rId36"/>
-    <hyperlink ref="D10" r:id="rId37"/>
-    <hyperlink ref="F10" r:id="rId38"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EC67ED-5361-4F7B-8B9B-A11B4155A7D3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12210" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="299">
   <si>
     <t>TC_NO</t>
   </si>
@@ -358,15 +352,6 @@
     <t>003_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomSportsPackage</t>
   </si>
   <si>
-    <t>Ftrfrank1+videoaddtest03@gmail.com</t>
-  </si>
-  <si>
-    <t>ftrfrank1+remedyticket@gmail.com</t>
-  </si>
-  <si>
-    <t>ftrfrank1+march18th@gmail.com</t>
-  </si>
-  <si>
     <t>TC17</t>
   </si>
   <si>
@@ -385,16 +370,10 @@
     <t>Add Video Package</t>
   </si>
   <si>
-    <t>ftrfrank1+mar13@gmail.com</t>
-  </si>
-  <si>
     <t>8136774772</t>
   </si>
   <si>
     <t>0293</t>
-  </si>
-  <si>
-    <t>210-023-1679-051407-5 JOANN S.</t>
   </si>
   <si>
     <t>001_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_ErrorMessaging</t>
@@ -618,9 +597,6 @@
     </r>
   </si>
   <si>
-    <t>ftrfrank1+vv@gmail.com</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -633,9 +609,6 @@
     <t>009_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_SiteWideTranslationNavigation</t>
   </si>
   <si>
-    <t>https://agentqat02.ftr.com/agent/social_media_chatlink_generator#/</t>
-  </si>
-  <si>
     <t>001_CC_.COM_NSS_Res_ML_ErrorMessaging</t>
   </si>
   <si>
@@ -973,13 +946,37 @@
   </si>
   <si>
     <t>TC49</t>
+  </si>
+  <si>
+    <t>ftrqatest03+1@gmail.com</t>
+  </si>
+  <si>
+    <t>https://qat03.frontier.com/resources/cpni</t>
+  </si>
+  <si>
+    <t>ftrqatest03+4@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrqatest03+3@gmail.com</t>
+  </si>
+  <si>
+    <t>972-202-7309-120208-5 MONTSERRAT A.</t>
+  </si>
+  <si>
+    <t>ftrqatest03+2@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrqatest03@gmail.com</t>
+  </si>
+  <si>
+    <t>https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,12 +1026,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1145,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1166,13 +1157,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,23 +1175,23 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1482,21 +1469,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1495,7 @@
     <col min="5" max="5" width="21.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -1521,454 +1508,462 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="C2" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28" t="s">
+      <c r="C4" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
+      <c r="C5" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="28"/>
+      <c r="C6" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" s="28"/>
+      <c r="C7" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
+      <c r="C8" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
+      <c r="C9" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="28" t="s">
+      <c r="C10" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="28" t="s">
+      <c r="H10" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="28" t="s">
+      <c r="C11" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="28"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="26"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D2" r:id="rId8" display="https://qat01.frontier.com/" xr:uid="{80E06280-1286-4F06-9B09-A8D8AE54F593}"/>
-    <hyperlink ref="D9" r:id="rId9" display="https://qat01.frontier.com/resources/cpni" xr:uid="{B78ECDD6-1B55-4023-BAF3-7510F032AC20}"/>
-    <hyperlink ref="D10" r:id="rId10" display="https://qat01.frontier.com/" xr:uid="{EDF81425-8C59-41B6-9E32-1117EA4DCC98}"/>
-    <hyperlink ref="D11" r:id="rId11" display="https://qat01.frontier.com/" xr:uid="{750BD327-7BD7-45B2-A543-251F6AB47719}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="D2" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11"/>
+    <hyperlink ref="D3" r:id="rId12"/>
+    <hyperlink ref="D4" r:id="rId13"/>
+    <hyperlink ref="D5" r:id="rId14"/>
+    <hyperlink ref="D6" r:id="rId15"/>
+    <hyperlink ref="D7" r:id="rId16"/>
+    <hyperlink ref="D8" r:id="rId17"/>
+    <hyperlink ref="F8" r:id="rId18"/>
+    <hyperlink ref="F9" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>18</v>
@@ -2058,13 +2053,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>18</v>
@@ -2085,13 +2080,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>18</v>
@@ -2112,13 +2107,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>18</v>
@@ -2138,12 +2133,12 @@
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>18</v>
@@ -2164,13 +2159,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>18</v>
@@ -2191,13 +2186,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>18</v>
@@ -2218,13 +2213,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>18</v>
@@ -2240,45 +2235,45 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
+      <c r="B10" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>128</v>
+      <c r="B11" s="37" t="s">
+        <v>123</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>18</v>
@@ -2299,13 +2294,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>18</v>
@@ -2326,13 +2321,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>18</v>
@@ -2353,13 +2348,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>18</v>
@@ -2380,13 +2375,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>18</v>
@@ -2407,13 +2402,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>18</v>
@@ -2434,13 +2429,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>18</v>
@@ -2458,16 +2453,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>18</v>
@@ -2485,16 +2480,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>18</v>
@@ -2512,16 +2507,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>18</v>
@@ -2539,16 +2534,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>18</v>
@@ -2566,16 +2561,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>18</v>
@@ -2593,16 +2588,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>18</v>
@@ -2620,16 +2615,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>18</v>
@@ -2647,14 +2642,14 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="37"/>
+        <v>139</v>
+      </c>
+      <c r="B25" s="35"/>
       <c r="C25" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>18</v>
@@ -2672,16 +2667,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>18</v>
@@ -2699,16 +2694,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>18</v>
@@ -2726,14 +2721,14 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="37"/>
+        <v>144</v>
+      </c>
+      <c r="B28" s="35"/>
       <c r="C28" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>18</v>
@@ -2751,16 +2746,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>18</v>
@@ -2778,16 +2773,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>18</v>
@@ -2805,14 +2800,14 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="37"/>
+        <v>149</v>
+      </c>
+      <c r="B31" s="35"/>
       <c r="C31" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>18</v>
@@ -2830,16 +2825,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>18</v>
@@ -2857,16 +2852,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>18</v>
@@ -2884,13 +2879,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>18</v>
@@ -2908,16 +2903,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>18</v>
@@ -2935,14 +2930,14 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" s="37"/>
+        <v>158</v>
+      </c>
+      <c r="B36" s="35"/>
       <c r="C36" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>18</v>
@@ -2960,16 +2955,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>18</v>
@@ -2987,16 +2982,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>18</v>
@@ -3014,16 +3009,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>18</v>
@@ -3041,16 +3036,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -3066,16 +3061,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -3091,16 +3086,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -3116,57 +3111,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" display="https://qat03.frontier.com/resources/cpni" xr:uid="{88EAB32F-EB0B-48B7-A301-63B6C63417C1}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{ECEDD941-DD41-4887-81C1-9BE087AE2EB1}"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://qat03.frontier.com/" xr:uid="{992221E7-2412-42B1-8E27-2822A613AA80}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://qat03.frontier.com/" xr:uid="{97554C04-53DE-4DE6-9A8E-2155C47835D3}"/>
-    <hyperlink ref="D10" r:id="rId5" display="https://qat03.frontier.com/" xr:uid="{F2007743-BDA3-48FD-A841-A73A3F0E8EA9}"/>
-    <hyperlink ref="D11" r:id="rId6" display="https://qat03.frontier.com/" xr:uid="{297AE27B-CE5C-42B4-9B97-AA4EBB5E06D6}"/>
-    <hyperlink ref="D12" r:id="rId7" display="https://qat03.frontier.com/" xr:uid="{DFEAA029-93D1-4548-8965-C441C504F7E3}"/>
-    <hyperlink ref="D13" r:id="rId8" display="https://qat03.frontier.com/" xr:uid="{7457CE9B-8265-4DBB-BF89-E6157916F062}"/>
-    <hyperlink ref="D14" r:id="rId9" display="https://qat03.frontier.com/" xr:uid="{29C1050E-E90C-4512-ABD6-D1B79536E2BC}"/>
-    <hyperlink ref="D15" r:id="rId10" display="https://qat03.frontier.com/" xr:uid="{496CFDBA-A670-4B4F-A73B-5599A20B2044}"/>
-    <hyperlink ref="D16" r:id="rId11" display="https://qat03.frontier.com/" xr:uid="{A652647C-EF44-4B8B-B752-57AE273745BC}"/>
-    <hyperlink ref="D17" r:id="rId12" display="https://qat03.frontier.com/" xr:uid="{81304545-44F6-4AE0-B6A0-A692D580081A}"/>
-    <hyperlink ref="D18" r:id="rId13" display="https://qat03.frontier.com/" xr:uid="{DDF9FA5E-ABA3-4757-9DF4-7ED9A9F9AD48}"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://qat03.frontier.com/" xr:uid="{6CF8D666-FCA2-4E92-85E4-608A102B308A}"/>
-    <hyperlink ref="D20" r:id="rId15" display="https://qat03.frontier.com/" xr:uid="{C0446A3F-C8A6-47E7-9D99-B501D43F87E9}"/>
-    <hyperlink ref="D21" r:id="rId16" display="https://qat03.frontier.com/" xr:uid="{482D8F2C-5FA0-4C32-AB64-379B2751717B}"/>
-    <hyperlink ref="D22" r:id="rId17" display="https://qat03.frontier.com/" xr:uid="{DEEA078F-59E4-4321-80D9-D0F6A6EE376E}"/>
-    <hyperlink ref="D23" r:id="rId18" display="https://qat03.frontier.com/" xr:uid="{931B8D31-8A55-4A5D-9561-13B8FB730AAC}"/>
-    <hyperlink ref="D24" r:id="rId19" display="https://qat03.frontier.com/" xr:uid="{A95AC36F-629C-400E-B2EC-16D96312BF58}"/>
-    <hyperlink ref="D25" r:id="rId20" display="https://qat03.frontier.com/" xr:uid="{B5F03164-E27B-4FAE-A758-F740400C7FFD}"/>
-    <hyperlink ref="D26" r:id="rId21" display="https://qat03.frontier.com/" xr:uid="{D9925FD6-6028-4074-BC48-AAD14A73EEF1}"/>
-    <hyperlink ref="D27" r:id="rId22" display="https://qat03.frontier.com/" xr:uid="{1F8623F1-8EFC-4C98-9EE4-EE14F0A6F825}"/>
-    <hyperlink ref="D28" r:id="rId23" display="https://qat03.frontier.com/" xr:uid="{B87DDAD6-C01E-486A-8D08-03832F642C64}"/>
-    <hyperlink ref="D29" r:id="rId24" display="https://qat03.frontier.com/" xr:uid="{2FF49A2D-5500-4994-A70D-94ABC01DB9A4}"/>
-    <hyperlink ref="D30" r:id="rId25" display="https://qat03.frontier.com/" xr:uid="{85BCC874-10BE-48CB-AEF7-351E7296FDB1}"/>
-    <hyperlink ref="D31" r:id="rId26" display="https://qat03.frontier.com/" xr:uid="{E98F03AF-B3AB-485F-99DB-29D41D66BB3D}"/>
-    <hyperlink ref="D32" r:id="rId27" display="https://qat03.frontier.com/" xr:uid="{811922A5-9784-48FC-8715-60ADBEFB7828}"/>
-    <hyperlink ref="D33" r:id="rId28" display="https://qat03.frontier.com/" xr:uid="{9576B6B9-9102-4876-84BF-BF57F98B2A24}"/>
-    <hyperlink ref="D34" r:id="rId29" display="https://qat03.frontier.com/" xr:uid="{29F8484F-3769-4590-B94D-B85B915DEF88}"/>
-    <hyperlink ref="D35" r:id="rId30" display="https://qat03.frontier.com/" xr:uid="{C70AD1B5-F880-4B2A-A852-67C2984F9F8F}"/>
-    <hyperlink ref="D36" r:id="rId31" display="https://qat03.frontier.com/" xr:uid="{4BBEA1A3-36AB-4D3F-A077-0AB9DAEBEB94}"/>
-    <hyperlink ref="D37" r:id="rId32" display="https://qat03.frontier.com/" xr:uid="{E3A2D354-6BED-4F07-9DEE-2B7610129FD6}"/>
-    <hyperlink ref="D41" r:id="rId33" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{5270A43E-63E5-4F44-B40B-639C90DFF93A}"/>
-    <hyperlink ref="D42" r:id="rId34" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{47D42A3C-4B97-4049-84F9-7E22EB4FF424}"/>
-    <hyperlink ref="D40" r:id="rId35" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{884F6A90-6C55-417B-8059-DD047080953A}"/>
-    <hyperlink ref="D38" r:id="rId36" display="https://qat03.frontier.com/" xr:uid="{AE08B731-DD63-4252-AFA7-265D3703411C}"/>
-    <hyperlink ref="D39" r:id="rId37" display="https://qat03.frontier.com/" xr:uid="{6F692826-8E7F-4301-9545-68125C642AC7}"/>
+    <hyperlink ref="D9" r:id="rId1" display="https://qat03.frontier.com/resources/cpni"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D11" r:id="rId6" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D12" r:id="rId7" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D13" r:id="rId8" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D14" r:id="rId9" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D15" r:id="rId10" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D16" r:id="rId11" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D17" r:id="rId12" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D18" r:id="rId13" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D19" r:id="rId14"/>
+    <hyperlink ref="D25" r:id="rId15"/>
+    <hyperlink ref="D27" r:id="rId16"/>
+    <hyperlink ref="D28" r:id="rId17"/>
+    <hyperlink ref="D29" r:id="rId18"/>
+    <hyperlink ref="D30" r:id="rId19"/>
+    <hyperlink ref="D41" r:id="rId20" location="/"/>
+    <hyperlink ref="D42" r:id="rId21" location="/"/>
+    <hyperlink ref="D40" r:id="rId22" location="/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C17"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,13 +3187,13 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>180</v>
+      <c r="C2" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -3227,8 +3207,8 @@
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>180</v>
+      <c r="C3" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>70</v>
@@ -3247,8 +3227,8 @@
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>180</v>
+      <c r="C4" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>70</v>
@@ -3267,8 +3247,8 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>180</v>
+      <c r="C5" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>70</v>
@@ -3287,8 +3267,8 @@
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>180</v>
+      <c r="C6" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>70</v>
@@ -3307,8 +3287,8 @@
       <c r="B7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>180</v>
+      <c r="C7" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>70</v>
@@ -3327,8 +3307,8 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>180</v>
+      <c r="C8" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>70</v>
@@ -3347,8 +3327,8 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>180</v>
+      <c r="C9" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>70</v>
@@ -3367,8 +3347,8 @@
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>180</v>
+      <c r="C10" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>70</v>
@@ -3387,8 +3367,8 @@
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>180</v>
+      <c r="C11" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>70</v>
@@ -3407,8 +3387,8 @@
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>180</v>
+      <c r="C12" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>70</v>
@@ -3427,8 +3407,8 @@
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>180</v>
+      <c r="C13" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>70</v>
@@ -3447,8 +3427,8 @@
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>180</v>
+      <c r="C14" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>70</v>
@@ -3467,8 +3447,8 @@
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>180</v>
+      <c r="C15" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>70</v>
@@ -3487,8 +3467,8 @@
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>180</v>
+      <c r="C16" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>70</v>
@@ -3507,8 +3487,8 @@
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>180</v>
+      <c r="C17" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>70</v>
@@ -3522,9 +3502,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3532,7 +3512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3604,8 +3584,8 @@
       <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>180</v>
+      <c r="C2" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>70</v>
@@ -3638,8 +3618,8 @@
       <c r="B3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>180</v>
+      <c r="C3" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>70</v>
@@ -3664,8 +3644,8 @@
       <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>180</v>
+      <c r="C4" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>70</v>
@@ -3676,7 +3656,7 @@
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>98</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -3694,8 +3674,8 @@
       <c r="B5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>180</v>
+      <c r="C5" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>70</v>
@@ -3720,8 +3700,8 @@
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>180</v>
+      <c r="C6" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>70</v>
@@ -3746,8 +3726,8 @@
       <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>180</v>
+      <c r="C7" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>70</v>
@@ -3772,8 +3752,8 @@
       <c r="B8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>180</v>
+      <c r="C8" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>70</v>
@@ -3798,8 +3778,8 @@
       <c r="B9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>180</v>
+      <c r="C9" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>70</v>
@@ -3824,8 +3804,8 @@
       <c r="B10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>180</v>
+      <c r="C10" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>70</v>
@@ -3845,10 +3825,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="G4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3856,14 +3836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C17"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3900,10 +3880,10 @@
       <c r="B2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -3917,8 +3897,8 @@
       <c r="B3" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>180</v>
+      <c r="C3" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>69</v>
@@ -3934,8 +3914,8 @@
       <c r="B4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>180</v>
+      <c r="C4" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>69</v>
@@ -3951,8 +3931,8 @@
       <c r="B5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>180</v>
+      <c r="C5" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>69</v>
@@ -3968,8 +3948,8 @@
       <c r="B6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>180</v>
+      <c r="C6" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>69</v>
@@ -3985,8 +3965,8 @@
       <c r="B7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>180</v>
+      <c r="C7" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>69</v>
@@ -4002,8 +3982,8 @@
       <c r="B8" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>180</v>
+      <c r="C8" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>69</v>
@@ -4019,8 +3999,8 @@
       <c r="B9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>180</v>
+      <c r="C9" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>69</v>
@@ -4036,8 +4016,8 @@
       <c r="B10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>180</v>
+      <c r="C10" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>69</v>
@@ -4053,8 +4033,8 @@
       <c r="B11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>180</v>
+      <c r="C11" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>69</v>
@@ -4070,8 +4050,8 @@
       <c r="B12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>180</v>
+      <c r="C12" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>69</v>
@@ -4087,8 +4067,8 @@
       <c r="B13" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>180</v>
+      <c r="C13" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>69</v>
@@ -4104,8 +4084,8 @@
       <c r="B14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>180</v>
+      <c r="C14" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>69</v>
@@ -4121,8 +4101,8 @@
       <c r="B15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>180</v>
+      <c r="C15" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>69</v>
@@ -4138,8 +4118,8 @@
       <c r="B16" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>180</v>
+      <c r="C16" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>69</v>
@@ -4155,8 +4135,8 @@
       <c r="B17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>180</v>
+      <c r="C17" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>69</v>
@@ -4167,9 +4147,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -4177,11 +4157,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4197,486 +4177,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="B3" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="C4" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="C5" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
+      <c r="B6" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
+      <c r="B7" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="F6" r:id="rId7"/>
+    <hyperlink ref="D7" r:id="rId8"/>
+    <hyperlink ref="F7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80041691-D5C8-4807-A611-F1056FB3EB8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="7" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4707,13 +4686,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>18</v>
@@ -4726,13 +4705,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>18</v>
@@ -4745,18 +4724,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="28" t="s">
         <v>180</v>
       </c>
+      <c r="C4" s="26" t="s">
+        <v>174</v>
+      </c>
       <c r="D4" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4764,13 +4743,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>18</v>
@@ -4783,13 +4762,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>18</v>
@@ -4802,13 +4781,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>18</v>
@@ -4821,13 +4800,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>18</v>
@@ -4840,13 +4819,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>180</v>
+        <v>185</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>18</v>
@@ -4859,13 +4838,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>18</v>
@@ -4874,36 +4853,31 @@
       <c r="G10" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{DE9919E8-E3D9-4FE5-B0FF-453EA6A9E9FC}"/>
-    <hyperlink ref="D3:D9" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{7308798F-4B17-4B89-92E5-700E68A4648C}"/>
-    <hyperlink ref="D10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{647F4B41-A8F2-4B3D-BBF8-CD466B0740A5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B41C84-C5FA-4B28-A318-2F66BA88EE5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="26" customWidth="1"/>
-    <col min="3" max="3" width="105.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="24" customWidth="1"/>
+    <col min="3" max="3" width="105.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="3"/>
     <col min="10" max="11" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="26"/>
+    <col min="12" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4911,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>21</v>
@@ -4938,107 +4912,107 @@
         <v>55</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>180</v>
+        <v>190</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="28">
+      <c r="I3" s="26">
         <v>14621</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>180</v>
+        <v>191</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="28">
+      <c r="I4" s="26">
         <v>14621</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>180</v>
+        <v>192</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>202</v>
+      <c r="I5" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5046,1228 +5020,1199 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>180</v>
+      <c r="D6" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>180</v>
+        <v>197</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="I7" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>180</v>
+        <v>199</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="I8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="I9" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>180</v>
+        <v>203</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="I10" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>180</v>
+        <v>205</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="I11" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="28"/>
+      <c r="A13" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="26"/>
       <c r="E13" s="9"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>180</v>
+      <c r="A14" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="28"/>
+      <c r="A15" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="26"/>
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="D19" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="B20" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="9"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="D24" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="B25" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="D25" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="B26" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="9"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="B30" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="D30" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="26" t="s">
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="28" t="s">
+      <c r="B31" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="D31" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B29" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="26" t="s">
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="B32" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="26" t="s">
+      <c r="D32" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="28" t="s">
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="B33" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="26" t="s">
+      <c r="D33" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="28" t="s">
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="B34" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="D34" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="28" t="s">
+      <c r="B35" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="D35" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="B33" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" s="26" t="s">
+      <c r="B36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="28" t="s">
+      <c r="D36" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="B37" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="D37" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="B35" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="C39" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="D35" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>274</v>
-      </c>
       <c r="D39" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
       <c r="I39" s="16" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>275</v>
+      <c r="A40" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>268</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="28" t="s">
-        <v>249</v>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>276</v>
+      <c r="A41" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>269</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="16" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>278</v>
+      <c r="A42" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>271</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
       <c r="I42" s="14" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>279</v>
+      <c r="A43" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>272</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
       <c r="I43" s="14" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="C44" s="48" t="s">
-        <v>280</v>
-      </c>
       <c r="D44" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
       <c r="I44" s="14" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>282</v>
+      <c r="A45" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>275</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>69</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
       <c r="I45" s="16" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>283</v>
+      <c r="A46" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>276</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="28" t="s">
-        <v>249</v>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="B47" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>285</v>
+      <c r="A47" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>278</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
       <c r="I47" s="16" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>287</v>
+      <c r="A48" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>280</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
       <c r="I48" s="14" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>180</v>
+      <c r="A49" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="28" t="s">
-        <v>220</v>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K49" s="16"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
+      <c r="A50" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>180</v>
+      <c r="A52" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="28" t="s">
-        <v>220</v>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="26" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
-        <v>296</v>
+      <c r="A53" s="42" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
-        <v>297</v>
+      <c r="A54" s="42" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{D0FB9B76-AEC5-4591-8BA4-10556A40F26E}"/>
-    <hyperlink ref="E4:E10" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{C6464F26-E508-4910-B1DD-DC3B4D61E3E3}"/>
-    <hyperlink ref="E11" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{ACADBBB1-D684-49F5-A3EF-F10D497F777D}"/>
-    <hyperlink ref="E14:E20" r:id="rId4" display="https://qat01.frontier.com/" xr:uid="{E4FCB4F7-BC55-4F8E-9C89-712BAE328557}"/>
-    <hyperlink ref="E21" r:id="rId5" display="https://qat01.frontier.com/" xr:uid="{EC99EA4E-70F4-4678-B54F-C82F5AE9F8A3}"/>
-    <hyperlink ref="E22" r:id="rId6" display="https://qat01.frontier.com/" xr:uid="{B4200373-546E-4E90-ACA9-019D7B7E6E8F}"/>
-    <hyperlink ref="E23:E29" r:id="rId7" display="https://qat01.frontier.com/" xr:uid="{BFDCFCF9-35BE-4FFD-A9D8-A9BF9761E536}"/>
-    <hyperlink ref="E30" r:id="rId8" display="https://qat01.frontier.com/" xr:uid="{52BA0F0F-6188-4A04-B61D-96D5A263C5CA}"/>
-    <hyperlink ref="E31" r:id="rId9" display="https://qat01.frontier.com/" xr:uid="{F5DD6C18-CF96-4F8E-A53F-AC53BA74D695}"/>
-    <hyperlink ref="E32" r:id="rId10" display="https://qat01.frontier.com/" xr:uid="{E4DE9D13-3BAE-4041-A4E4-234E872508BF}"/>
-    <hyperlink ref="E33" r:id="rId11" display="https://qat01.frontier.com/" xr:uid="{B17BA114-FBDE-4FCD-839F-5A849A08E29A}"/>
-    <hyperlink ref="E34" r:id="rId12" display="https://qat01.frontier.com/" xr:uid="{06F948CA-D884-443E-8F74-BD078B2906CC}"/>
-    <hyperlink ref="E35" r:id="rId13" display="https://qat01.frontier.com/" xr:uid="{21E45FA2-9BCC-42F8-A38A-6FA0F56D2A25}"/>
-    <hyperlink ref="E36" r:id="rId14" display="https://qat01.frontier.com/" xr:uid="{73D9776E-89E7-4D03-B35A-CE0F4D78DFE1}"/>
-    <hyperlink ref="E37" r:id="rId15" display="https://qat01.frontier.com/" xr:uid="{3F2AEA4F-9C77-414A-BAF6-5DD619D8BAA1}"/>
-    <hyperlink ref="E39" r:id="rId16" xr:uid="{151E6B96-E748-4A02-8D8D-E0049C281DD0}"/>
-    <hyperlink ref="E40" r:id="rId17" display="https://qat01.frontier.com/" xr:uid="{68C43626-3B96-4351-B027-70BC688E20E5}"/>
-    <hyperlink ref="E41" r:id="rId18" display="https://qat01.frontier.com/" xr:uid="{87455B3E-E34A-4DFB-8C24-91DD1BADD9DD}"/>
-    <hyperlink ref="E42" r:id="rId19" display="https://qat01.frontier.com/" xr:uid="{4CCB06A7-61D2-4953-84A8-1DD9A5865280}"/>
-    <hyperlink ref="E43" r:id="rId20" display="https://qat01.frontier.com/" xr:uid="{2A928FDE-AED9-4F80-9B65-80904DB452D7}"/>
-    <hyperlink ref="E44" r:id="rId21" display="https://qat01.frontier.com/" xr:uid="{BB22714B-1223-4655-B1B3-DD150C1782A0}"/>
-    <hyperlink ref="E45" r:id="rId22" xr:uid="{2B33D262-AD99-421C-A135-181FA0703BF0}"/>
-    <hyperlink ref="E46" r:id="rId23" display="https://qat01.frontier.com/" xr:uid="{609B149D-724D-4729-9FDF-573F64FF4AEE}"/>
-    <hyperlink ref="E47" r:id="rId24" display="https://qat01.frontier.com/" xr:uid="{25E94ED6-5AC6-412C-A8FD-936242E43C3C}"/>
-    <hyperlink ref="E48" r:id="rId25" display="https://qat01.frontier.com/" xr:uid="{1B799DD7-C5BF-470A-865E-C686346D80A3}"/>
-    <hyperlink ref="E49" r:id="rId26" display="https://qat01.frontier.com/" xr:uid="{B8C8201C-D5EA-4121-ABCF-3EF7E1F48B40}"/>
-    <hyperlink ref="E52" r:id="rId27" display="https://qat01.frontier.com/" xr:uid="{B5DD6EB0-519F-4FCE-9570-CB57DA4AFC66}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D735C66-1A95-4B0B-A375-9554CDCA18A1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12210" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12210" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="297">
   <si>
     <t>TC_NO</t>
   </si>
@@ -600,12 +606,6 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>https://qat02.frontier.com/</t>
-  </si>
-  <si>
-    <t>https://qat02.frontier.com/resources/cpni</t>
-  </si>
-  <si>
     <t>009_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_SiteWideTranslationNavigation</t>
   </si>
   <si>
@@ -975,7 +975,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1469,14 +1469,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1577,7 +1577,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>99</v>
@@ -1647,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>99</v>
@@ -1688,7 +1688,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>99</v>
@@ -1721,7 +1721,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>99</v>
@@ -1758,7 +1758,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>99</v>
@@ -1793,7 +1793,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>99</v>
@@ -1820,13 +1820,13 @@
         <v>174</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>99</v>
@@ -1859,13 +1859,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>99</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
@@ -1896,7 +1896,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>99</v>
@@ -1933,25 +1933,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F11" r:id="rId2"/>
-    <hyperlink ref="F6" r:id="rId3"/>
-    <hyperlink ref="F7" r:id="rId4"/>
-    <hyperlink ref="F4" r:id="rId5"/>
-    <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="F10" r:id="rId7"/>
-    <hyperlink ref="D2" r:id="rId8"/>
-    <hyperlink ref="D9" r:id="rId9"/>
-    <hyperlink ref="D10" r:id="rId10"/>
-    <hyperlink ref="D11" r:id="rId11"/>
-    <hyperlink ref="D3" r:id="rId12"/>
-    <hyperlink ref="D4" r:id="rId13"/>
-    <hyperlink ref="D5" r:id="rId14"/>
-    <hyperlink ref="D6" r:id="rId15"/>
-    <hyperlink ref="D7" r:id="rId16"/>
-    <hyperlink ref="D8" r:id="rId17"/>
-    <hyperlink ref="F8" r:id="rId18"/>
-    <hyperlink ref="F9" r:id="rId19"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>
@@ -1959,10 +1959,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -2028,7 +2028,7 @@
         <v>174</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>18</v>
@@ -2059,7 +2059,7 @@
         <v>174</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>18</v>
@@ -2086,7 +2086,7 @@
         <v>174</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>18</v>
@@ -2113,7 +2113,7 @@
         <v>174</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>18</v>
@@ -2138,7 +2138,7 @@
         <v>174</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>18</v>
@@ -2165,7 +2165,7 @@
         <v>174</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>18</v>
@@ -2192,7 +2192,7 @@
         <v>174</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>18</v>
@@ -2219,7 +2219,7 @@
         <v>174</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>18</v>
@@ -2240,13 +2240,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>174</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>18</v>
@@ -2273,7 +2273,7 @@
         <v>174</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>18</v>
@@ -2300,7 +2300,7 @@
         <v>174</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         <v>174</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>18</v>
@@ -2354,7 +2354,7 @@
         <v>174</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>18</v>
@@ -2381,7 +2381,7 @@
         <v>174</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>18</v>
@@ -2408,7 +2408,7 @@
         <v>174</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>18</v>
@@ -2435,7 +2435,7 @@
         <v>174</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>18</v>
@@ -2462,7 +2462,7 @@
         <v>174</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>18</v>
@@ -3045,7 +3045,7 @@
         <v>174</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -3070,7 +3070,7 @@
         <v>174</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -3095,7 +3095,7 @@
         <v>174</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -3111,35 +3111,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" display="https://qat03.frontier.com/resources/cpni"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://qat03.frontier.com/"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://qat03.frontier.com/"/>
-    <hyperlink ref="D10" r:id="rId5" display="https://qat03.frontier.com/"/>
-    <hyperlink ref="D11" r:id="rId6" display="https://qat03.frontier.com/"/>
-    <hyperlink ref="D12" r:id="rId7" display="https://qat03.frontier.com/"/>
-    <hyperlink ref="D13" r:id="rId8" display="https://qat03.frontier.com/"/>
-    <hyperlink ref="D14" r:id="rId9" display="https://qat03.frontier.com/"/>
-    <hyperlink ref="D15" r:id="rId10" display="https://qat03.frontier.com/"/>
-    <hyperlink ref="D16" r:id="rId11" display="https://qat03.frontier.com/"/>
-    <hyperlink ref="D17" r:id="rId12" display="https://qat03.frontier.com/"/>
-    <hyperlink ref="D18" r:id="rId13" display="https://qat03.frontier.com/"/>
-    <hyperlink ref="D19" r:id="rId14"/>
-    <hyperlink ref="D25" r:id="rId15"/>
-    <hyperlink ref="D27" r:id="rId16"/>
-    <hyperlink ref="D28" r:id="rId17"/>
-    <hyperlink ref="D29" r:id="rId18"/>
-    <hyperlink ref="D30" r:id="rId19"/>
-    <hyperlink ref="D41" r:id="rId20" location="/"/>
-    <hyperlink ref="D42" r:id="rId21" location="/"/>
-    <hyperlink ref="D40" r:id="rId22" location="/"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D25" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D27" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D28" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D29" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D30" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D41" r:id="rId20" location="/" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D42" r:id="rId21" location="/" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D40" r:id="rId22" location="/" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3502,9 +3502,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3512,7 +3512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3825,10 +3825,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3836,7 +3836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4147,9 +4147,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/"/>
-    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -4157,7 +4157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4245,7 +4245,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>99</v>
@@ -4276,7 +4276,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>99</v>
@@ -4307,7 +4307,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>99</v>
@@ -4338,7 +4338,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>99</v>
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>99</v>
@@ -4623,15 +4623,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="F5" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
-    <hyperlink ref="F6" r:id="rId7"/>
-    <hyperlink ref="D7" r:id="rId8"/>
-    <hyperlink ref="F7" r:id="rId9"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -4639,7 +4639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>174</v>
@@ -4705,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>174</v>
@@ -4724,7 +4724,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>174</v>
@@ -4743,7 +4743,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>174</v>
@@ -4762,7 +4762,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>174</v>
@@ -4781,7 +4781,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>174</v>
@@ -4800,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>174</v>
@@ -4819,7 +4819,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>174</v>
@@ -4838,7 +4838,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>174</v>
@@ -4858,7 +4858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>21</v>
@@ -4912,14 +4912,14 @@
         <v>55</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
@@ -4935,10 +4935,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>174</v>
@@ -4962,10 +4962,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>174</v>
@@ -4989,10 +4989,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>174</v>
@@ -5006,13 +5006,13 @@
       <c r="G5" s="20"/>
       <c r="H5" s="8"/>
       <c r="I5" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>193</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5020,10 +5020,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>174</v>
@@ -5045,10 +5045,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>174</v>
@@ -5062,7 +5062,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -5072,10 +5072,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>174</v>
@@ -5089,7 +5089,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -5099,10 +5099,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>174</v>
@@ -5116,7 +5116,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
@@ -5126,10 +5126,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>174</v>
@@ -5143,7 +5143,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -5153,10 +5153,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>174</v>
@@ -5170,7 +5170,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -5179,7 +5179,7 @@
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5192,13 +5192,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>208</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>210</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="9"/>
@@ -5211,13 +5211,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>174</v>
@@ -5231,20 +5231,20 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
       <c r="I14" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="9"/>
@@ -5257,13 +5257,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>174</v>
@@ -5277,20 +5277,20 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
       <c r="I16" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>174</v>
@@ -5304,20 +5304,20 @@
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
       <c r="I17" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>174</v>
@@ -5331,20 +5331,20 @@
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>174</v>
@@ -5358,20 +5358,20 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="9"/>
@@ -5384,13 +5384,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>174</v>
@@ -5404,20 +5404,20 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>174</v>
@@ -5431,20 +5431,20 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
       <c r="I22" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>174</v>
@@ -5458,20 +5458,20 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
       <c r="I23" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>174</v>
@@ -5485,20 +5485,20 @@
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
       <c r="I24" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>174</v>
@@ -5512,20 +5512,20 @@
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
       <c r="I25" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="9"/>
@@ -5538,13 +5538,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>174</v>
@@ -5558,20 +5558,20 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>174</v>
@@ -5585,20 +5585,20 @@
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
       <c r="I28" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>174</v>
@@ -5612,20 +5612,20 @@
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
       <c r="I29" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>174</v>
@@ -5639,20 +5639,20 @@
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
       <c r="I30" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>174</v>
@@ -5666,20 +5666,20 @@
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
       <c r="I31" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>174</v>
@@ -5693,20 +5693,20 @@
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>174</v>
@@ -5720,20 +5720,20 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>174</v>
@@ -5747,20 +5747,20 @@
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
       <c r="I34" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>174</v>
@@ -5774,20 +5774,20 @@
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
       <c r="I35" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>174</v>
@@ -5801,20 +5801,20 @@
       <c r="G36" s="45"/>
       <c r="H36" s="45"/>
       <c r="I36" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>174</v>
@@ -5828,7 +5828,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="45"/>
       <c r="I37" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
@@ -5837,7 +5837,7 @@
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -5853,10 +5853,10 @@
         <v>158</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>174</v>
@@ -5870,7 +5870,7 @@
       <c r="G39" s="46"/>
       <c r="H39" s="46"/>
       <c r="I39" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
@@ -5880,10 +5880,10 @@
         <v>160</v>
       </c>
       <c r="B40" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="46" t="s">
         <v>266</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>268</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>174</v>
@@ -5897,7 +5897,7 @@
       <c r="G40" s="46"/>
       <c r="H40" s="46"/>
       <c r="I40" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
@@ -5907,10 +5907,10 @@
         <v>162</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>174</v>
@@ -5924,7 +5924,7 @@
       <c r="G41" s="46"/>
       <c r="H41" s="46"/>
       <c r="I41" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
@@ -5934,10 +5934,10 @@
         <v>163</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>174</v>
@@ -5951,7 +5951,7 @@
       <c r="G42" s="46"/>
       <c r="H42" s="46"/>
       <c r="I42" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
@@ -5961,10 +5961,10 @@
         <v>164</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>174</v>
@@ -5978,7 +5978,7 @@
       <c r="G43" s="46"/>
       <c r="H43" s="46"/>
       <c r="I43" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
@@ -5988,10 +5988,10 @@
         <v>165</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>174</v>
@@ -6005,7 +6005,7 @@
       <c r="G44" s="46"/>
       <c r="H44" s="46"/>
       <c r="I44" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
@@ -6015,10 +6015,10 @@
         <v>167</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>174</v>
@@ -6032,7 +6032,7 @@
       <c r="G45" s="46"/>
       <c r="H45" s="46"/>
       <c r="I45" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
@@ -6042,10 +6042,10 @@
         <v>169</v>
       </c>
       <c r="B46" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="46" t="s">
         <v>274</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>276</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>174</v>
@@ -6059,20 +6059,20 @@
       <c r="G46" s="46"/>
       <c r="H46" s="46"/>
       <c r="I46" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>174</v>
@@ -6086,20 +6086,20 @@
       <c r="G47" s="46"/>
       <c r="H47" s="46"/>
       <c r="I47" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>174</v>
@@ -6113,20 +6113,20 @@
       <c r="G48" s="46"/>
       <c r="H48" s="46"/>
       <c r="I48" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="46" t="s">
         <v>281</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>283</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>174</v>
@@ -6140,16 +6140,16 @@
       <c r="G49" s="45"/>
       <c r="H49" s="45"/>
       <c r="I49" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K49" s="16"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
@@ -6166,7 +6166,7 @@
       <c r="A51" s="40"/>
       <c r="B51" s="40"/>
       <c r="C51" s="40" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
@@ -6179,13 +6179,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" s="48" t="s">
         <v>286</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>288</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>174</v>
@@ -6199,17 +6199,17 @@
       <c r="G52" s="45"/>
       <c r="H52" s="45"/>
       <c r="I52" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestData/qat03.xlsx
+++ b/Resources/TestData/qat03.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D735C66-1A95-4B0B-A375-9554CDCA18A1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12210" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12210" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="298">
   <si>
     <t>TC_NO</t>
   </si>
@@ -344,12 +338,6 @@
   </si>
   <si>
     <t>Order_Id</t>
-  </si>
-  <si>
-    <t>219-364-9237-121317-5</t>
-  </si>
-  <si>
-    <t>$134.19</t>
   </si>
   <si>
     <t>002_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomEssentialsPackage</t>
@@ -948,9 +936,6 @@
     <t>TC49</t>
   </si>
   <si>
-    <t>ftrqatest03+1@gmail.com</t>
-  </si>
-  <si>
     <t>https://qat03.frontier.com/resources/cpni</t>
   </si>
   <si>
@@ -970,13 +955,28 @@
   </si>
   <si>
     <t>https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/</t>
+  </si>
+  <si>
+    <t>219-983-1807-051117-5</t>
+  </si>
+  <si>
+    <t>$110.13</t>
+  </si>
+  <si>
+    <t>ftrqatest03+6@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrqatest03+7@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1044,12 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1136,7 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1196,6 +1202,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1469,21 +1478,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1577,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>69</v>
@@ -1577,7 +1586,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>99</v>
@@ -1593,7 +1602,7 @@
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>87</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>69</v>
@@ -1610,16 +1619,16 @@
         <v>18</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>104</v>
+      <c r="H3" s="49" t="s">
+        <v>294</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>105</v>
+        <v>295</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
@@ -1638,7 +1647,7 @@
         <v>88</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>69</v>
@@ -1647,7 +1656,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>99</v>
@@ -1679,7 +1688,7 @@
         <v>89</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>69</v>
@@ -1688,7 +1697,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>99</v>
@@ -1712,7 +1721,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>69</v>
@@ -1721,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>99</v>
@@ -1733,10 +1742,10 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="26"/>
@@ -1749,7 +1758,7 @@
         <v>91</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>69</v>
@@ -1758,7 +1767,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>99</v>
@@ -1772,7 +1781,7 @@
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
       <c r="P7" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="26"/>
     </row>
@@ -1784,7 +1793,7 @@
         <v>92</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>69</v>
@@ -1793,7 +1802,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>99</v>
@@ -1817,16 +1826,16 @@
         <v>93</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>99</v>
@@ -1850,7 +1859,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>69</v>
@@ -1859,13 +1868,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>99</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
@@ -1887,7 +1896,7 @@
         <v>102</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>69</v>
@@ -1896,7 +1905,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>99</v>
@@ -1933,33 +1942,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="D2" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11"/>
+    <hyperlink ref="D3" r:id="rId12"/>
+    <hyperlink ref="D4" r:id="rId13"/>
+    <hyperlink ref="D5" r:id="rId14"/>
+    <hyperlink ref="D6" r:id="rId15"/>
+    <hyperlink ref="D7" r:id="rId16"/>
+    <hyperlink ref="D8" r:id="rId17"/>
+    <hyperlink ref="F8" r:id="rId18"/>
+    <hyperlink ref="F9" r:id="rId19"/>
+    <hyperlink ref="F3" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2022,10 +2032,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>69</v>
@@ -2053,10 +2063,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>69</v>
@@ -2080,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>69</v>
@@ -2107,10 +2117,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>69</v>
@@ -2135,7 +2145,7 @@
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>69</v>
@@ -2159,10 +2169,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>69</v>
@@ -2186,10 +2196,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>69</v>
@@ -2213,13 +2223,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>18</v>
@@ -2240,10 +2250,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>69</v>
@@ -2267,10 +2277,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>69</v>
@@ -2294,10 +2304,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>69</v>
@@ -2321,10 +2331,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>69</v>
@@ -2348,10 +2358,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>69</v>
@@ -2375,10 +2385,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>69</v>
@@ -2402,10 +2412,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>69</v>
@@ -2429,10 +2439,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>69</v>
@@ -2453,13 +2463,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>69</v>
@@ -2480,13 +2490,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>69</v>
@@ -2507,13 +2517,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>69</v>
@@ -2534,13 +2544,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>69</v>
@@ -2561,13 +2571,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>69</v>
@@ -2588,13 +2598,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>69</v>
@@ -2615,13 +2625,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>69</v>
@@ -2642,11 +2652,11 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>69</v>
@@ -2667,13 +2677,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>69</v>
@@ -2694,13 +2704,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>69</v>
@@ -2721,11 +2731,11 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>69</v>
@@ -2746,13 +2756,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>69</v>
@@ -2773,13 +2783,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>69</v>
@@ -2800,11 +2810,11 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>69</v>
@@ -2825,13 +2835,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>69</v>
@@ -2852,13 +2862,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>69</v>
@@ -2879,10 +2889,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>69</v>
@@ -2903,13 +2913,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>69</v>
@@ -2930,11 +2940,11 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>69</v>
@@ -2955,13 +2965,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>69</v>
@@ -2982,13 +2992,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>69</v>
@@ -3009,13 +3019,13 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>69</v>
@@ -3036,16 +3046,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="C40" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -3061,16 +3071,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -3086,16 +3096,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -3111,35 +3121,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D16" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D17" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D18" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D19" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D25" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D27" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D28" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D29" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D30" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D41" r:id="rId20" location="/" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D42" r:id="rId21" location="/" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D40" r:id="rId22" location="/" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="D11" r:id="rId6"/>
+    <hyperlink ref="D12" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D14" r:id="rId9"/>
+    <hyperlink ref="D15" r:id="rId10"/>
+    <hyperlink ref="D16" r:id="rId11"/>
+    <hyperlink ref="D17" r:id="rId12"/>
+    <hyperlink ref="D18" r:id="rId13"/>
+    <hyperlink ref="D19" r:id="rId14"/>
+    <hyperlink ref="D25" r:id="rId15"/>
+    <hyperlink ref="D27" r:id="rId16"/>
+    <hyperlink ref="D28" r:id="rId17"/>
+    <hyperlink ref="D29" r:id="rId18"/>
+    <hyperlink ref="D30" r:id="rId19"/>
+    <hyperlink ref="D41" r:id="rId20" location="/"/>
+    <hyperlink ref="D42" r:id="rId21" location="/"/>
+    <hyperlink ref="D40" r:id="rId22" location="/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,7 +3198,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>70</v>
@@ -3208,7 +3218,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>70</v>
@@ -3228,7 +3238,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>70</v>
@@ -3248,7 +3258,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>70</v>
@@ -3268,7 +3278,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>70</v>
@@ -3288,7 +3298,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>70</v>
@@ -3308,7 +3318,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>70</v>
@@ -3328,7 +3338,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>70</v>
@@ -3348,7 +3358,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>70</v>
@@ -3368,7 +3378,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>70</v>
@@ -3388,7 +3398,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>70</v>
@@ -3408,7 +3418,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>70</v>
@@ -3428,7 +3438,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>70</v>
@@ -3448,7 +3458,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>70</v>
@@ -3468,7 +3478,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>70</v>
@@ -3488,7 +3498,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>70</v>
@@ -3502,9 +3512,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3512,7 +3522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3585,7 +3595,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>70</v>
@@ -3619,7 +3629,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>70</v>
@@ -3645,7 +3655,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>70</v>
@@ -3675,7 +3685,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>70</v>
@@ -3701,7 +3711,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>70</v>
@@ -3727,7 +3737,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>70</v>
@@ -3753,7 +3763,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>70</v>
@@ -3779,7 +3789,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>70</v>
@@ -3805,7 +3815,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>70</v>
@@ -3825,10 +3835,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="G4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3836,7 +3846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3881,7 +3891,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>69</v>
@@ -3898,7 +3908,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>69</v>
@@ -3915,7 +3925,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>69</v>
@@ -3932,7 +3942,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>69</v>
@@ -3949,7 +3959,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>69</v>
@@ -3966,7 +3976,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>69</v>
@@ -3983,7 +3993,7 @@
         <v>76</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>69</v>
@@ -4000,7 +4010,7 @@
         <v>77</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>69</v>
@@ -4017,7 +4027,7 @@
         <v>78</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>69</v>
@@ -4034,7 +4044,7 @@
         <v>79</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>69</v>
@@ -4051,7 +4061,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>69</v>
@@ -4068,7 +4078,7 @@
         <v>81</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>69</v>
@@ -4085,7 +4095,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>69</v>
@@ -4102,7 +4112,7 @@
         <v>83</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>69</v>
@@ -4119,7 +4129,7 @@
         <v>84</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>69</v>
@@ -4136,7 +4146,7 @@
         <v>85</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>69</v>
@@ -4147,9 +4157,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -4157,11 +4167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4212,7 +4222,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -4233,10 +4243,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>69</v>
@@ -4245,7 +4255,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>99</v>
@@ -4264,10 +4274,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>69</v>
@@ -4276,7 +4286,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>99</v>
@@ -4295,10 +4305,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>69</v>
@@ -4307,7 +4317,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>99</v>
@@ -4326,10 +4336,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>69</v>
@@ -4338,7 +4348,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>99</v>
@@ -4357,10 +4367,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>69</v>
@@ -4369,7 +4379,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>99</v>
@@ -4623,23 +4633,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="F6" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="D7" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="F7" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4686,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>69</v>
@@ -4705,10 +4712,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>69</v>
@@ -4724,10 +4731,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>69</v>
@@ -4743,10 +4750,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>69</v>
@@ -4762,10 +4769,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>69</v>
@@ -4781,10 +4788,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>69</v>
@@ -4800,10 +4807,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>69</v>
@@ -4819,10 +4826,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>69</v>
@@ -4838,10 +4845,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>69</v>
@@ -4858,10 +4865,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -4885,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>21</v>
@@ -4912,14 +4919,14 @@
         <v>55</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
@@ -4935,13 +4942,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>69</v>
@@ -4962,13 +4969,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="D4" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>69</v>
@@ -4989,13 +4996,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>69</v>
@@ -5006,13 +5013,13 @@
       <c r="G5" s="20"/>
       <c r="H5" s="8"/>
       <c r="I5" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5020,13 +5027,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>69</v>
@@ -5045,13 +5052,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>69</v>
@@ -5062,7 +5069,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -5072,13 +5079,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>69</v>
@@ -5089,7 +5096,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -5099,13 +5106,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>69</v>
@@ -5116,7 +5123,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
@@ -5126,13 +5133,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>69</v>
@@ -5143,7 +5150,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -5153,13 +5160,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>69</v>
@@ -5170,7 +5177,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -5179,7 +5186,7 @@
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5192,13 +5199,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>206</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>208</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="9"/>
@@ -5211,16 +5218,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>69</v>
@@ -5231,20 +5238,20 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
       <c r="I14" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="9"/>
@@ -5257,16 +5264,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>69</v>
@@ -5277,23 +5284,23 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
       <c r="I16" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>69</v>
@@ -5304,23 +5311,23 @@
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
       <c r="I17" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>69</v>
@@ -5331,23 +5338,23 @@
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>69</v>
@@ -5358,20 +5365,20 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="9"/>
@@ -5384,16 +5391,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>69</v>
@@ -5404,23 +5411,23 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>69</v>
@@ -5431,23 +5438,23 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
       <c r="I22" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>69</v>
@@ -5458,23 +5465,23 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
       <c r="I23" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>69</v>
@@ -5485,23 +5492,23 @@
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
       <c r="I24" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>69</v>
@@ -5512,20 +5519,20 @@
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
       <c r="I25" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="9"/>
@@ -5538,16 +5545,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>69</v>
@@ -5558,23 +5565,23 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>69</v>
@@ -5585,23 +5592,23 @@
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
       <c r="I28" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>69</v>
@@ -5612,23 +5619,23 @@
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
       <c r="I29" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>69</v>
@@ -5639,23 +5646,23 @@
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
       <c r="I30" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>69</v>
@@ -5666,23 +5673,23 @@
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
       <c r="I31" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>69</v>
@@ -5693,23 +5700,23 @@
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>69</v>
@@ -5720,23 +5727,23 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>69</v>
@@ -5747,23 +5754,23 @@
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
       <c r="I34" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>69</v>
@@ -5774,23 +5781,23 @@
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
       <c r="I35" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>69</v>
@@ -5801,23 +5808,23 @@
       <c r="G36" s="45"/>
       <c r="H36" s="45"/>
       <c r="I36" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>69</v>
@@ -5828,7 +5835,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="45"/>
       <c r="I37" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
@@ -5837,7 +5844,7 @@
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -5850,16 +5857,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>69</v>
@@ -5870,23 +5877,23 @@
       <c r="G39" s="46"/>
       <c r="H39" s="46"/>
       <c r="I39" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B40" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="C40" s="46" t="s">
-        <v>266</v>
-      </c>
       <c r="D40" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>69</v>
@@ -5897,23 +5904,23 @@
       <c r="G40" s="46"/>
       <c r="H40" s="46"/>
       <c r="I40" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>69</v>
@@ -5924,23 +5931,23 @@
       <c r="G41" s="46"/>
       <c r="H41" s="46"/>
       <c r="I41" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>69</v>
@@ -5951,23 +5958,23 @@
       <c r="G42" s="46"/>
       <c r="H42" s="46"/>
       <c r="I42" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>69</v>
@@ -5978,23 +5985,23 @@
       <c r="G43" s="46"/>
       <c r="H43" s="46"/>
       <c r="I43" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>69</v>
@@ -6005,23 +6012,23 @@
       <c r="G44" s="46"/>
       <c r="H44" s="46"/>
       <c r="I44" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E45" s="47" t="s">
         <v>69</v>
@@ -6032,23 +6039,23 @@
       <c r="G45" s="46"/>
       <c r="H45" s="46"/>
       <c r="I45" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B46" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="C46" s="46" t="s">
-        <v>274</v>
-      </c>
       <c r="D46" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>69</v>
@@ -6059,23 +6066,23 @@
       <c r="G46" s="46"/>
       <c r="H46" s="46"/>
       <c r="I46" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>69</v>
@@ -6086,23 +6093,23 @@
       <c r="G47" s="46"/>
       <c r="H47" s="46"/>
       <c r="I47" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>69</v>
@@ -6113,23 +6120,23 @@
       <c r="G48" s="46"/>
       <c r="H48" s="46"/>
       <c r="I48" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>281</v>
-      </c>
       <c r="D49" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>69</v>
@@ -6140,16 +6147,16 @@
       <c r="G49" s="45"/>
       <c r="H49" s="45"/>
       <c r="I49" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K49" s="16"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
@@ -6166,7 +6173,7 @@
       <c r="A51" s="40"/>
       <c r="B51" s="40"/>
       <c r="C51" s="40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
@@ -6179,16 +6186,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>286</v>
-      </c>
       <c r="D52" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>69</v>
@@ -6199,17 +6206,17 @@
       <c r="G52" s="45"/>
       <c r="H52" s="45"/>
       <c r="I52" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
